--- a/public/reportes/Reporte Programa Operativo Anua.xlsx
+++ b/public/reportes/Reporte Programa Operativo Anua.xlsx
@@ -790,48 +790,48 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Centro de Participación Ciudadana del Estado</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C7" s="0">
-        <v>5599</v>
+        <v>6428</v>
       </c>
       <c r="D7" s="0">
         <v>2022</v>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>Instalación de Comisiones Permanentes de Consejos de Participación Ciudadana</t>
+          <t>Hpoallal</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>Instalar 24 comisiones permanentes de Consejos de Participación Ciudadana alineados a los ejes rectores del plan estatal de desarrollo.</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>Lograr la participación ciudadana de la triple hélice.</t>
+          <t>hhhhhh</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>Convocar junto con las dependencias involucradas a la reinstalación y puesta en marcha de los consejos de participación ciudadana.</t>
+          <t>jh jhbjbj</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="L7" s="0">
@@ -907,48 +907,48 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Centro de Participación Ciudadana del Estado</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C8" s="0">
-        <v>5600</v>
+        <v>6429</v>
       </c>
       <c r="D8" s="0">
         <v>2022</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>Realizar las sesiones y mesas de trabajo con los consejos y observatorios  de participación ciudadana.</t>
+          <t>Hoal</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>Realizar las sesiones y mesas de trabajo con los consejos de participación ciudadana.</t>
+          <t>HHH</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>Lograr la participación ciudadana de la triple hélice.</t>
+          <t>HABSKJABKJ</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>Convocar junto con las dependencias involucradas a la reinstalación y puesta en marcha de los consejos de participación ciudadana.</t>
+          <t>KBSDKJBASLB</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="L8" s="0">
@@ -1024,48 +1024,48 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Centro de Participación Ciudadana del Estado</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C9" s="0">
-        <v>5601</v>
+        <v>6430</v>
       </c>
       <c r="D9" s="0">
         <v>2022</v>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>Llevar a cabo las sesiones plenarias de cada consejo de participación ciudadana.</t>
+          <t>jOLALLS</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>Llevar a cabo las sesiones plenarias de cada consejo de participación ciudadana.</t>
+          <t>hOLA</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>Lograr la participación ciudadana de la triple hélice.</t>
+          <t>NBVN</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>Convocar junto con las dependencias involucradas a la reinstalación y puesta en marcha de los consejos de participación ciudadana.</t>
+          <t>MHJVKHKHV</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="L9" s="0">
@@ -1141,52 +1141,52 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Centro de Participación Ciudadana del Estado</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C10" s="0">
-        <v>5602</v>
+        <v>6431</v>
       </c>
       <c r="D10" s="0">
         <v>2022</v>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Creación de plataforma digital de participación ciudadana para la consulta y seguimiento de la ciudadanía al PED 2021-2027.</t>
+          <t>jOLALLS</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>Creación de plataforma digital de participación ciudadana para la consulta y seguimiento de la ciudadanía al PED 2021-2027.</t>
+          <t>hOLA</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>Lograr la participación ciudadana de la triple hélice.</t>
+          <t>NBVN</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>Generar un medio de acceso a información amigable y dinámico donde la gente pueda acercarse al CEPACIQ.</t>
+          <t>MHJVKHKHV</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>2022-01-15</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="L10" s="0">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N10" s="0" t="inlineStr">
         <is>
@@ -1258,52 +1258,52 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Comisión Estatal de Mejora Regulatoria</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C11" s="0">
-        <v>5570</v>
+        <v>6432</v>
       </c>
       <c r="D11" s="0">
         <v>2022</v>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Elaborar y proponer el proyecto de nueva Ley de Mejora Regulatoria del Estado de Querétaro que siente las bases para la aplicación de la política y sus herramientas.</t>
+          <t>HHHHHHH</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>Elaborar y proponer el proyecto de nueva Ley de Mejora Regulatoria del Estado de Querétaro que siente las bases para la aplicación de la política y sus herramientas.</t>
+          <t>HHHHHHHH</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>Subir la puntuación de .86 a .90 en el pilar de Políticas del Indicador Subnacional de Mejora Regulatoria</t>
+          <t>HHHHHHHH</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>Alinear el marco regulatorio estatal a los ordenamientos nacionales.</t>
+          <t>HHHHHHHH</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="L11" s="0">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0" t="inlineStr">
         <is>
@@ -1375,48 +1375,48 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Comisión Estatal de Mejora Regulatoria</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C12" s="0">
-        <v>5571</v>
+        <v>6433</v>
       </c>
       <c r="D12" s="0">
         <v>2022</v>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>Elaborar y proponer el nuevo Reglamento Interior de la Comisión de Mejora Regulatoria del Estado de Querétaro.</t>
+          <t>HHHHHHH</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>Elaborar el proyecto de nuevo Reglamento Interior de la Comisión de Mejora Regulatoria del Estado de Querétaro y llevar a cabo todas las gestiones pertinentes para la publicación, alineándolo a la nueva Ley de Mejora Regulatoria del Estado. </t>
+          <t>HHHHHHHH</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>Regular la operación e instituciones de la política pública de mejora regulatoria en el Estado de Querétaro .</t>
+          <t>HHHHHHHH</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>Alinear el marco regulatorio con la nueva Ley de Mejora Regulatoria.</t>
+          <t>HHHHHHHH</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="L12" s="0">
@@ -1492,33 +1492,33 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Comisión Estatal de Mejora Regulatoria</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C13" s="0">
-        <v>5573</v>
+        <v>6434</v>
       </c>
       <c r="D13" s="0">
         <v>2022</v>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>Elaborar y proponer el título de Análisis de Impacto Regulatorio para incluirlo en el proyecto de nueva Ley de Mejora Regulatoria del Estado de Querétaro.</t>
+          <t>Padre 1</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>Elaborar y proponer el título de Análisis de Impacto Regulatorio para incluirlo en el proyecto de nueva Ley de Mejora Regulatoria del Estado de Querétaro.</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>Subir la puntuación en el pilar de Herramientas del Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>"Crear el marco jurídico para la operación del Análisis de Impacto Regulatorio en la Administración Pública Estatal"</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
@@ -1528,16 +1528,16 @@
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="L13" s="0">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N13" s="0" t="inlineStr">
         <is>
@@ -1609,33 +1609,33 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Comisión Estatal de Mejora Regulatoria</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C14" s="0">
-        <v>5575</v>
+        <v>6435</v>
       </c>
       <c r="D14" s="0">
         <v>2022</v>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>Coordinar la Instalación y Primera Sesión Ordinaria del Consejo de Mejora Regulatoria del Estado de Querétaro.</t>
+          <t>Padre 2</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>Organizar y coordinar la Instalación y Primera Sesión Ordinaria del Consejo de Mejora Regulatoria del Estado de Querétaro, de acuerdo a la nueva Ley Estatal.</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>Funcionamiento del Consejo de Mejora Regulatoria del Estado de Querétaro con la participación de los tres poderes.</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>Alinear la estructura del Consejo de Mejora Regulatoria del Estado de Querétaro en el marco normativo y en la operación.</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="L14" s="0">
@@ -1726,52 +1726,52 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Comisión Estatal de Mejora Regulatoria</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C15" s="0">
-        <v>5638</v>
+        <v>6436</v>
       </c>
       <c r="D15" s="0">
         <v>2022</v>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>Diseñar una plataforma para la aplicación del Análisis de Impacto Regulatorio.</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Analizar la herramienta, elaborar una idea para desarrollo de  plataforma para la aplicación del Análisis de Impacto Regulatorio y solicitar a las áreas de desarrollo su ejecución, </t>
+          <t>hOLA</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>Subir la puntuación en el pilar de Herramientas del Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>HOLA</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>Desarrollar un Programa piloto para la implementación del Análisis de Impacto Regulatorio en la Administración Pública Estatal.</t>
+          <t>HOLA</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>63. Pasar del 25° a los primeros 10 lugares en el indicador de tiempo requerido para cumplir con el marco regulatorio.</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="L15" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0" t="inlineStr">
         <is>
@@ -1843,48 +1843,48 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Comisión Estatal de Mejora Regulatoria</t>
+          <t>Admin </t>
         </is>
       </c>
       <c r="C16" s="0">
-        <v>5639</v>
+        <v>6437</v>
       </c>
       <c r="D16" s="0">
         <v>2022</v>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria en la herramienta de Análisis de Impacto Regulatorio.</t>
+          <t>HOla</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria de Mejora Regulatoria.</t>
+          <t>Hola</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Subir la puntuación en el pilar de Herramientas del Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>HOLS</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>Desarrollar un Programa piloto para la implementación del Análisis de Impacto Regulatorio en la Administración Pública Estatal.</t>
+          <t>HOLS</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="L16" s="0">
@@ -1960,48 +1960,48 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Comisión Estatal de Mejora Regulatoria</t>
+          <t>Centro de Participación Ciudadana del Estado</t>
         </is>
       </c>
       <c r="C17" s="0">
-        <v>5640</v>
+        <v>5599</v>
       </c>
       <c r="D17" s="0">
         <v>2022</v>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>Implementar un Programa piloto de Análisis de Impacto Regulatorio. </t>
+          <t>Instalación de Comisiones Permanentes de Consejos de Participación Ciudadana</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>Analizar la información con que cuenta la Comisión para seleccionar un Programa piloto.</t>
+          <t>Instalar 24 comisiones permanentes de Consejos de Participación Ciudadana alineados a los ejes rectores del plan estatal de desarrollo.</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Subir la puntuación en el pilar de Herramientas del Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>Lograr la participación ciudadana de la triple hélice.</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>Desarrollar un Programa piloto para la implementación del Análisis de Impacto Regulatorio en la Administración Pública Estatal.</t>
+          <t>Convocar junto con las dependencias involucradas a la reinstalación y puesta en marcha de los consejos de participación ciudadana.</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>2022-09-01</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="L17" s="0">
@@ -2077,52 +2077,52 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Comisión Estatal de Mejora Regulatoria</t>
+          <t>Centro de Participación Ciudadana del Estado</t>
         </is>
       </c>
       <c r="C18" s="0">
-        <v>5641</v>
+        <v>5600</v>
       </c>
       <c r="D18" s="0">
         <v>2022</v>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>Diseñar la herramienta que opera el Padrón de Inspectores 2da versión de acuerdo a la Estrategia Nacional de Mejora Regulatoria.</t>
+          <t>Realizar las sesiones y mesas de trabajo con los consejos y observatorios  de participación ciudadana.</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>Tener una plataforma alineada y actualizada a los ordenamientos nacionales. </t>
+          <t>Realizar las sesiones y mesas de trabajo con los consejos de participación ciudadana.</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>Alinear al 100% la plataforma del Padrón de Inspectores  a los requerimientos del Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>Lograr la participación ciudadana de la triple hélice.</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>Adecuar y actualizar la plataforma del Padrón de Inspectores a los ordenamientos vigentes.</t>
+          <t>Convocar junto con las dependencias involucradas a la reinstalación y puesta en marcha de los consejos de participación ciudadana.</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="L18" s="0">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N18" s="0" t="inlineStr">
         <is>
@@ -2194,48 +2194,48 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>Comisión Estatal de Mejora Regulatoria</t>
+          <t>Centro de Participación Ciudadana del Estado</t>
         </is>
       </c>
       <c r="C19" s="0">
-        <v>5642</v>
+        <v>5601</v>
       </c>
       <c r="D19" s="0">
         <v>2022</v>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria en la herramienta del Padrón de Inspectores.</t>
+          <t>Llevar a cabo las sesiones plenarias de cada consejo de participación ciudadana.</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria en la herramienta del Padrón de Inspectores 2022.</t>
+          <t>Llevar a cabo las sesiones plenarias de cada consejo de participación ciudadana.</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>Alinear al 100% la plataforma del Padrón de Inspectores a los requerimientos del Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>Lograr la participación ciudadana de la triple hélice.</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>Adecuar y actualizar la plataforma del Padrón de Inspectores a los ordenamientos vigentes.</t>
+          <t>Convocar junto con las dependencias involucradas a la reinstalación y puesta en marcha de los consejos de participación ciudadana.</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="L19" s="0">
@@ -2311,52 +2311,52 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>Comisión Estatal de Mejora Regulatoria</t>
+          <t>Centro de Participación Ciudadana del Estado</t>
         </is>
       </c>
       <c r="C20" s="0">
-        <v>5643</v>
+        <v>5602</v>
       </c>
       <c r="D20" s="0">
         <v>2022</v>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>Diseñar la herramienta que opera el Registro de Trámites y Servicios de acuerdo a los requerimientos nacionales.</t>
+          <t>Creación de plataforma digital de participación ciudadana para la consulta y seguimiento de la ciudadanía al PED 2021-2027.</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>Tener una plataforma alineada y actualizada a los requerimientos nacionales.</t>
+          <t>Creación de plataforma digital de participación ciudadana para la consulta y seguimiento de la ciudadanía al PED 2021-2027.</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>Alinear al 100% la plataforma del Registro Estatal de Trámites y Servicios acorde al Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>Lograr la participación ciudadana de la triple hélice.</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>Adecuar y actualizar la plataforma del Registro Estatal de Trámites y Servicios a  a los ordenamientos vigentes.</t>
+          <t>Generar un medio de acceso a información amigable y dinámico donde la gente pueda acercarse al CEPACIQ.</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-01-15</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="L20" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="N20" s="0" t="inlineStr">
         <is>
@@ -2432,29 +2432,29 @@
         </is>
       </c>
       <c r="C21" s="0">
-        <v>5644</v>
+        <v>5570</v>
       </c>
       <c r="D21" s="0">
         <v>2022</v>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria para el llenado del programa de Mejora Regulatoria 2022.</t>
+          <t>Elaborar y proponer el proyecto de nueva Ley de Mejora Regulatoria del Estado de Querétaro que siente las bases para la aplicación de la política y sus herramientas.</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria para el llenado del programa de Mejora Regulatoria 2022.</t>
+          <t>Elaborar y proponer el proyecto de nueva Ley de Mejora Regulatoria del Estado de Querétaro que siente las bases para la aplicación de la política y sus herramientas.</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>Alinear al 100% la plataforma del Registro Estatal de Trámites y Servicios acorde al Indicador Subnacional de Mejora Regulatoria.</t>
+          <t>Subir la puntuación de .86 a .90 en el pilar de Políticas del Indicador Subnacional de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>Adecuar y actualizar la plataforma del Registro Estatal de Trámtes y Servicios a  a los ordenamientos vigentes.</t>
+          <t>Alinear el marco regulatorio estatal a los ordenamientos nacionales.</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
@@ -2464,16 +2464,16 @@
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="L21" s="0">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N21" s="0" t="inlineStr">
         <is>
@@ -2549,30 +2549,29 @@
         </is>
       </c>
       <c r="C22" s="0">
-        <v>5645</v>
+        <v>5571</v>
       </c>
       <c r="D22" s="0">
         <v>2022</v>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>Integrar la plataforma del Programa de Mejora Regulatoria y los Lineamientos para su operación.</t>
+          <t>Elaborar y proponer el nuevo Reglamento Interior de la Comisión de Mejora Regulatoria del Estado de Querétaro.</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>Adecuar y actualizar la plataforma del Programa de Mejora Regulatoria y generar los lineamientos para su operación. </t>
+          <t>Elaborar el proyecto de nuevo Reglamento Interior de la Comisión de Mejora Regulatoria del Estado de Querétaro y llevar a cabo todas las gestiones pertinentes para la publicación, alineándolo a la nueva Ley de Mejora Regulatoria del Estado. </t>
         </is>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>Generar el programa de Mejora Regulatoria que contenga el 100 por ciento de los Programas de los Sujetos Obligados que determina la Ley de Mejora Regulatoria del Estado de Querétaro.</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Implementar el programa de mejora regulatoria  de acuerdo a la normatividad vigente.
-</t>
+          <t>Regular la operación e instituciones de la política pública de mejora regulatoria en el Estado de Querétaro .</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>Alinear el marco regulatorio con la nueva Ley de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="I22" s="0" t="inlineStr">
@@ -2667,29 +2666,29 @@
         </is>
       </c>
       <c r="C23" s="0">
-        <v>5646</v>
+        <v>5573</v>
       </c>
       <c r="D23" s="0">
         <v>2022</v>
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria para el llenado del Registro Estatal de Trámites y Servicios. </t>
+          <t>Elaborar y proponer el título de Análisis de Impacto Regulatorio para incluirlo en el proyecto de nueva Ley de Mejora Regulatoria del Estado de Querétaro.</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria en la herramienta del Registro Estatal de Trámites y Servicios. </t>
+          <t>Elaborar y proponer el título de Análisis de Impacto Regulatorio para incluirlo en el proyecto de nueva Ley de Mejora Regulatoria del Estado de Querétaro.</t>
         </is>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>Generar el programa de Mejora Regulatoria que contenga el 100 por ciento de los Programas de los Sujetos Obligados que determina la Ley de Mejora Regulatoria del Estado de Querétaro.</t>
+          <t>Subir la puntuación en el pilar de Herramientas del Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>Implementar el programa de mejora regulatoria  de acuerdo a la normatividad vigente.</t>
+          <t>"Crear el marco jurídico para la operación del Análisis de Impacto Regulatorio en la Administración Pública Estatal"</t>
         </is>
       </c>
       <c r="I23" s="0" t="inlineStr">
@@ -2699,16 +2698,16 @@
       </c>
       <c r="J23" s="0" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K23" s="0" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="L23" s="0">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N23" s="0" t="inlineStr">
         <is>
@@ -2784,30 +2783,29 @@
         </is>
       </c>
       <c r="C24" s="0">
-        <v>5647</v>
+        <v>5575</v>
       </c>
       <c r="D24" s="0">
         <v>2022</v>
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>Tener digitalizados los programas de Mejora Regulatoria.</t>
+          <t>Coordinar la Instalación y Primera Sesión Ordinaria del Consejo de Mejora Regulatoria del Estado de Querétaro.</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>Tener digitalizados los programas de Mejora Regulatoria.</t>
+          <t>Organizar y coordinar la Instalación y Primera Sesión Ordinaria del Consejo de Mejora Regulatoria del Estado de Querétaro, de acuerdo a la nueva Ley Estatal.</t>
         </is>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>Generar el programa de Mejora Regulatoria que contenga el 100 por ciento de los Programas de los Sujetos Obligados que determina la Ley de Mejora Regulatoria del Estado de Querétaro.</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Implementar el programa de mejora regulatoria  de acuerdo a la normatividad vigente.
-</t>
+          <t>Funcionamiento del Consejo de Mejora Regulatoria del Estado de Querétaro con la participación de los tres poderes.</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>Alinear la estructura del Consejo de Mejora Regulatoria del Estado de Querétaro en el marco normativo y en la operación.</t>
         </is>
       </c>
       <c r="I24" s="0" t="inlineStr">
@@ -2817,7 +2815,7 @@
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>2022-09-01</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="K24" s="0" t="inlineStr">
@@ -2902,29 +2900,29 @@
         </is>
       </c>
       <c r="C25" s="0">
-        <v>6037</v>
+        <v>5638</v>
       </c>
       <c r="D25" s="0">
         <v>2022</v>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>Plataforma de trámites digitales.</t>
+          <t>Diseñar una plataforma para la aplicación del Análisis de Impacto Regulatorio.</t>
         </is>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>Contar con una Plataforma de trámites digitales.</t>
+          <t>Analizar la herramienta, elaborar una idea para desarrollo de  plataforma para la aplicación del Análisis de Impacto Regulatorio y solicitar a las áreas de desarrollo su ejecución, </t>
         </is>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>Contar con una Plataforma que agrupe cuarenta trámites digitales prestados por el Poder Ejecutivo del Estado de Querétaro.</t>
+          <t>Subir la puntuación en el pilar de Herramientas del Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>Implementar una plataforma con los trámites y servicios que presta el Poder Ejecutivo del Estado de Querétaro de punta a punta.</t>
+          <t>Desarrollar un Programa piloto para la implementación del Análisis de Impacto Regulatorio en la Administración Pública Estatal.</t>
         </is>
       </c>
       <c r="I25" s="0" t="inlineStr">
@@ -2934,7 +2932,7 @@
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="K25" s="0" t="inlineStr">
@@ -2943,7 +2941,7 @@
         </is>
       </c>
       <c r="L25" s="0">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N25" s="0" t="inlineStr">
         <is>
@@ -3019,49 +3017,48 @@
         </is>
       </c>
       <c r="C26" s="0">
-        <v>6163</v>
+        <v>5639</v>
       </c>
       <c r="D26" s="0">
         <v>2022</v>
       </c>
       <c r="E26" s="0" t="inlineStr">
         <is>
-          <t>Capacitación municipal para la aplicación de las Herramientas de Mejora Regulatoria denominadas: Registro de Trámites y Servicios (CNARTys) y Sistema de Apertura Rápida de Empresas.</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>Brindar capacitación  a los Municipios del Estado en materia de mejora regulatoria, este año enfocada a la instalación de sus Consejos Municipales y la aplicación del Registro de Trámites y Servicios, su operación con el CNARTys y el  Sistema de Apertura Rápida de Empresas.
-</t>
+          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria en la herramienta de Análisis de Impacto Regulatorio.</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>Municipios capacitados</t>
+          <t>Subir la puntuación en el pilar de Herramientas del Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>Capacitar </t>
+          <t>Desarrollar un Programa piloto para la implementación del Análisis de Impacto Regulatorio en la Administración Pública Estatal.</t>
         </is>
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>3. Estar en los primeros diez lugares en Alimentación Nutritiva y de Calidad.</t>
+          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="L26" s="0">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="N26" s="0" t="inlineStr">
         <is>
@@ -3133,52 +3130,52 @@
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>Fideicomiso Promotor de Proyectos Económicos y de Bienestar Social</t>
+          <t>Comisión Estatal de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="C27" s="0">
-        <v>5681</v>
+        <v>5640</v>
       </c>
       <c r="D27" s="0">
         <v>2022</v>
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>Revisión y, en su caso, actualización de los convenios con las diferentes dependencias</t>
+          <t>Implementar un Programa piloto de Análisis de Impacto Regulatorio. </t>
         </is>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>Revisión y, en su caso, actualización de los convenios con las diferentes dependencias</t>
+          <t>Analizar la información con que cuenta la Comisión para seleccionar un Programa piloto.</t>
         </is>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>Regularizar el status de los predios propiedad de QRONOS</t>
+          <t>Subir la puntuación en el pilar de Herramientas del Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>Regularizar el status de los predios propiedad de QRONOS.</t>
+          <t>Desarrollar un Programa piloto para la implementación del Análisis de Impacto Regulatorio en la Administración Pública Estatal.</t>
         </is>
       </c>
       <c r="I27" s="0" t="inlineStr">
         <is>
-          <t>63. Pasar del 25° a los primeros 10 lugares en el indicador de tiempo requerido para cumplir con el marco regulatorio.</t>
+          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="K27" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="L27" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="0" t="inlineStr">
         <is>
@@ -3250,52 +3247,52 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>Fideicomiso Promotor de Proyectos Económicos y de Bienestar Social</t>
+          <t>Comisión Estatal de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="C28" s="0">
-        <v>5682</v>
+        <v>5641</v>
       </c>
       <c r="D28" s="0">
         <v>2022</v>
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
-          <t>Acercamiento con los titulares de las diferentes instancias para conocer sus necesidades de proyecto de obra para bienestar social</t>
+          <t>Diseñar la herramienta que opera el Padrón de Inspectores 2da versión de acuerdo a la Estrategia Nacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>Acercamiento con los titulares de las diferentes instancias para conocer sus necesidades de proyecto de obra para bienestar social.</t>
+          <t>Tener una plataforma alineada y actualizada a los ordenamientos nacionales. </t>
         </is>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
-          <t>Apoyo para la realización de ejecución de proyectos con diferentes instancias en obras para el bienestar social.</t>
+          <t>Alinear al 100% la plataforma del Padrón de Inspectores  a los requerimientos del Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>Apoyo para la realización de ejecución de proyectos con diferentes instancias en obras para el bienestar social.</t>
+          <t>Adecuar y actualizar la plataforma del Padrón de Inspectores a los ordenamientos vigentes.</t>
         </is>
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="K28" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="L28" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N28" s="0" t="inlineStr">
         <is>
@@ -3367,52 +3364,52 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>Fideicomiso Promotor de Proyectos Económicos y de Bienestar Social</t>
+          <t>Comisión Estatal de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="C29" s="0">
-        <v>5683</v>
+        <v>5642</v>
       </c>
       <c r="D29" s="0">
         <v>2022</v>
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
-          <t>Reunión con el fiduciario en cuanto al tema de la actualización del contrato, y reunión con la Dirección de Organización para el tema actualización del reglamento y manual de organización.</t>
+          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria en la herramienta del Padrón de Inspectores.</t>
         </is>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>Reunión con el fiduciario en cuanto al tema de la actualización del contrato, y reunión con la Dirección de Organización para el tema actualización del reglamento y manual de organización.</t>
+          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria en la herramienta del Padrón de Inspectores 2022.</t>
         </is>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
-          <t>Regularizar y actualizar el contrato de QRONOS, así como reglamento y manual de organización de acuerdo a las funciones de la estructura orgánica de QRONOS.</t>
+          <t>Alinear al 100% la plataforma del Padrón de Inspectores a los requerimientos del Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
-          <t>Regularizar y actualizar el contrato de QRONOS, así como reglamento y manual de organización de acuerdo a las funciones de la estructura orgánica de QRONOS.</t>
+          <t>Adecuar y actualizar la plataforma del Padrón de Inspectores a los ordenamientos vigentes.</t>
         </is>
       </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
-          <t>63. Pasar del 25° a los primeros 10 lugares en el indicador de tiempo requerido para cumplir con el marco regulatorio.</t>
+          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="J29" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="K29" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="L29" s="0">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N29" s="0" t="inlineStr">
         <is>
@@ -3484,39 +3481,38 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>Oficialía Mayor</t>
+          <t>Comisión Estatal de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="C30" s="0">
-        <v>4965</v>
+        <v>5643</v>
       </c>
       <c r="D30" s="0">
         <v>2022</v>
       </c>
       <c r="E30" s="0" t="inlineStr">
         <is>
-          <t>Comunicar al personal de jefe de departamento u homologos, directores y titulares de las dependencias del sector centralizado del Poder Ejecutivo del Estado de Querétaro en el proyecto de "Poder Querétaro"</t>
+          <t>Diseñar la herramienta que opera el Registro de Trámites y Servicios de acuerdo a los requerimientos nacionales.</t>
         </is>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>Comunicar al personal de jefe de departamento u homologos, directores y titulares de las dependencias del sector centralizado del Poder Ejecutivo del Estado de Querétaro en el curso de Alineación Positiva.</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Contar con un gobierno eficiente mejorando los servicios, clima laboral, simplificando procesos e implementando la cultura de atención personalizada al ciudadano en los servidores públicos de la Administración Publica Estatal. 
-Participación del 70% del personal en la encuesta de clima laboral del Control Interno.</t>
+          <t>Tener una plataforma alineada y actualizada a los requerimientos nacionales.</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>Alinear al 100% la plataforma del Registro Estatal de Trámites y Servicios acorde al Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
-          <t>Mejorar la atención personalizada al ciudadano en el sector público, conforme a los criterios rectores de legalidad, competitividad, libre acceso, respeto, trabajo digno, responsabilidad social, sentido de urgencia, comunicación.</t>
+          <t>Adecuar y actualizar la plataforma del Registro Estatal de Trámites y Servicios a  a los ordenamientos vigentes.</t>
         </is>
       </c>
       <c r="I30" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="J30" s="0" t="inlineStr">
@@ -3526,11 +3522,11 @@
       </c>
       <c r="K30" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="L30" s="0">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="N30" s="0" t="inlineStr">
         <is>
@@ -3602,52 +3598,52 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>Oficialía Mayor</t>
+          <t>Comisión Estatal de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="C31" s="0">
-        <v>4973</v>
+        <v>5644</v>
       </c>
       <c r="D31" s="0">
         <v>2022</v>
       </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
-          <t>Analizar los procesos de las direcciones para identificar los que requieren atención inmediata para proponer  un proyecto de trabajo de automatización..</t>
+          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria para el llenado del programa de Mejora Regulatoria 2022.</t>
         </is>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>Analizar los procesos de las direcciones para identificar los que requieren atención inmediata para proponer un proyecto de trabajo de automatización..</t>
+          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria para el llenado del programa de Mejora Regulatoria 2022.</t>
         </is>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
-          <t>Reducir en un 30% tiempos de respuesta de la Oficialía Mayor, a los requerimientos administrativos de las dependencias del sector central del Poder Ejecutivo del Estado de Querétaro y ciudadanía con la implementación de las tecnologías de la información para la automatización y simplifación de tramites y procesos </t>
+          <t>Alinear al 100% la plataforma del Registro Estatal de Trámites y Servicios acorde al Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>Automatización de procesos de las Direcciones de la Oficialía Mayor.</t>
+          <t>Adecuar y actualizar la plataforma del Registro Estatal de Trámtes y Servicios a  a los ordenamientos vigentes.</t>
         </is>
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="K31" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="L31" s="0">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N31" s="0" t="inlineStr">
         <is>
@@ -3719,48 +3715,49 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>Oficialía Mayor</t>
+          <t>Comisión Estatal de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="C32" s="0">
-        <v>4974</v>
+        <v>5645</v>
       </c>
       <c r="D32" s="0">
         <v>2022</v>
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
-          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
+          <t>Integrar la plataforma del Programa de Mejora Regulatoria y los Lineamientos para su operación.</t>
         </is>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
+          <t>Adecuar y actualizar la plataforma del Programa de Mejora Regulatoria y generar los lineamientos para su operación. </t>
         </is>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
-          <t>Reducir en un 30% tiempos de respuesta de la Oficialía Mayor, a los requerimientos administrativos de las dependencias del sector central del Poder Ejecutivo del Estado de Querétaro y ciudadanía con la implementación de las tecnologías de la información para la automatización y simplifación de tramites y procesos </t>
-        </is>
-      </c>
-      <c r="H32" s="0" t="inlineStr">
-        <is>
-          <t>Implementación de manera electrónica el proceso de solicitud de arrendamiento de bienes inmuebles de dominio público a cargo de la oficialía Mayor</t>
+          <t>Generar el programa de Mejora Regulatoria que contenga el 100 por ciento de los Programas de los Sujetos Obligados que determina la Ley de Mejora Regulatoria del Estado de Querétaro.</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>Implementar el programa de mejora regulatoria  de acuerdo a la normatividad vigente.
+</t>
         </is>
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="K32" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="L32" s="0">
@@ -3836,52 +3833,52 @@
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>Oficialía Mayor</t>
+          <t>Comisión Estatal de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="C33" s="0">
-        <v>4976</v>
+        <v>5646</v>
       </c>
       <c r="D33" s="0">
         <v>2022</v>
       </c>
       <c r="E33" s="0" t="inlineStr">
         <is>
-          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
+          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria para el llenado del Registro Estatal de Trámites y Servicios. </t>
         </is>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
+          <t>Capacitar a los Responsables Oficiales de Mejora Regulatoria en la herramienta del Registro Estatal de Trámites y Servicios. </t>
         </is>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
-          <t>Reducir en un 30% tiempos de respuesta de la Oficialía Mayor, a los requerimientos administrativos de las dependencias del sector central del Poder Ejecutivo del Estado de Querétaro y ciudadanía con la implementación de las tecnologías de la información para la automatización y simplifación de tramites y procesos </t>
+          <t>Generar el programa de Mejora Regulatoria que contenga el 100 por ciento de los Programas de los Sujetos Obligados que determina la Ley de Mejora Regulatoria del Estado de Querétaro.</t>
         </is>
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
-          <t>Digitalizar el proceso de refrendo y registro en el Padrón de Proveedores del PEEQ.</t>
+          <t>Implementar el programa de mejora regulatoria  de acuerdo a la normatividad vigente.</t>
         </is>
       </c>
       <c r="I33" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="K33" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="L33" s="0">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N33" s="0" t="inlineStr">
         <is>
@@ -3953,56 +3950,57 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>Oficialía Mayor</t>
+          <t>Comisión Estatal de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="C34" s="0">
-        <v>4978</v>
+        <v>5647</v>
       </c>
       <c r="D34" s="0">
         <v>2022</v>
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>Renovación de la flotilla vehicular en un arrendamiento integral que incluya mantenmientos preventivos, correctivos, gps, seguros, impuestos y derechos, entre otros.</t>
+          <t>Tener digitalizados los programas de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>Renovación de la flotilla vehicular en un arrendamiento integral que incluya mantenmientos preventivos, correctivos, gps, seguros, impuestos y derechos, entre otros.</t>
+          <t>Tener digitalizados los programas de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
-          <t> Reducir en un 20% los costos de operación y mantenimiento de la flotilla vehicular del Poder Ejecutivo del Estado de Querétaro respecto al  ejercicio 2021</t>
-        </is>
-      </c>
-      <c r="H34" s="0" t="inlineStr">
-        <is>
-          <t>Obtener una flotilla vehicular actualizada con un esquema de contratación diferente a la enajenación</t>
+          <t>Generar el programa de Mejora Regulatoria que contenga el 100 por ciento de los Programas de los Sujetos Obligados que determina la Ley de Mejora Regulatoria del Estado de Querétaro.</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Implementar el programa de mejora regulatoria  de acuerdo a la normatividad vigente.
+</t>
         </is>
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="K34" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="L34" s="0">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N34" s="0" t="inlineStr">
         <is>
-          <t>47395860.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O34" s="0" t="inlineStr">
@@ -4070,39 +4068,38 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
+          <t>Comisión Estatal de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="C35" s="0">
-        <v>5672</v>
+        <v>6037</v>
       </c>
       <c r="D35" s="0">
         <v>2022</v>
       </c>
       <c r="E35" s="0" t="inlineStr">
         <is>
-          <t>Actualizar o sustituir equipos de cómputo adecuados para la operación del área</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>Actualizar o sustituir equipos de cómputo para la operación del área
-</t>
+          <t>Plataforma de trámites digitales.</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>Contar con una Plataforma de trámites digitales.</t>
         </is>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
-          <t>Atender el 90 por ciento de las llamadas recibidas en la línea de atención ciudadana.</t>
+          <t>Contar con una Plataforma que agrupe cuarenta trámites digitales prestados por el Poder Ejecutivo del Estado de Querétaro.</t>
         </is>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>Fortalecer el centro de llamadas para brindar orientación y atención a los ciudadanos del estado.</t>
+          <t>Implementar una plataforma con los trámites y servicios que presta el Poder Ejecutivo del Estado de Querétaro de punta a punta.</t>
         </is>
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>61. Pasar del 4.° al 1.er lugar en el Indicador Subnacional de Mejora Regulatoria.</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
@@ -4112,15 +4109,15 @@
       </c>
       <c r="K35" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="L35" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N35" s="0" t="inlineStr">
         <is>
-          <t>19782882.32</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O35" s="0" t="inlineStr">
@@ -4188,38 +4185,39 @@
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
+          <t>Comisión Estatal de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="C36" s="0">
-        <v>5673</v>
+        <v>6163</v>
       </c>
       <c r="D36" s="0">
         <v>2022</v>
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
-          <t>Integrar y capacitar al nuevo personal del área</t>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>Integrar y capacitar al nuevo personal del área</t>
+          <t>Capacitación municipal para la aplicación de las Herramientas de Mejora Regulatoria denominadas: Registro de Trámites y Servicios (CNARTys) y Sistema de Apertura Rápida de Empresas.</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Brindar capacitación  a los Municipios del Estado en materia de mejora regulatoria, este año enfocada a la instalación de sus Consejos Municipales y la aplicación del Registro de Trámites y Servicios, su operación con el CNARTys y el  Sistema de Apertura Rápida de Empresas.
+</t>
         </is>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
-          <t>Atender el 90 por ciento de las llamadas recibidas en la línea de atención ciudadana.</t>
+          <t>Municipios capacitados</t>
         </is>
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
-          <t>Fortalecer el centro de llamadas para brindar orientación y atención a los ciudadanos del estado.</t>
+          <t>Capacitar </t>
         </is>
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>3. Estar en los primeros diez lugares en Alimentación Nutritiva y de Calidad.</t>
         </is>
       </c>
       <c r="J36" s="0" t="inlineStr">
@@ -4233,7 +4231,7 @@
         </is>
       </c>
       <c r="L36" s="0">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="N36" s="0" t="inlineStr">
         <is>
@@ -4305,38 +4303,38 @@
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
+          <t>Fideicomiso Promotor de Proyectos Económicos y de Bienestar Social</t>
         </is>
       </c>
       <c r="C37" s="0">
-        <v>5675</v>
+        <v>5681</v>
       </c>
       <c r="D37" s="0">
         <v>2022</v>
       </c>
       <c r="E37" s="0" t="inlineStr">
         <is>
-          <t>Tableros de seguimiento </t>
+          <t>Revisión y, en su caso, actualización de los convenios con las diferentes dependencias</t>
         </is>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>Generar tableros de seguimiento</t>
+          <t>Revisión y, en su caso, actualización de los convenios con las diferentes dependencias</t>
         </is>
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
-          <t>Gestionar que el 80 por ciento de los folios canalizados a las dependencias sean atendidos en tiempo de acuerdo a la Plataforma de Trámites en Línea (PTLEQ).</t>
+          <t>Regularizar el status de los predios propiedad de QRONOS</t>
         </is>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
-          <t>Automatizar tableros de seguimiento</t>
+          <t>Regularizar el status de los predios propiedad de QRONOS.</t>
         </is>
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>63. Pasar del 25° a los primeros 10 lugares en el indicador de tiempo requerido para cumplir con el marco regulatorio.</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
@@ -4350,7 +4348,7 @@
         </is>
       </c>
       <c r="L37" s="0">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="N37" s="0" t="inlineStr">
         <is>
@@ -4422,38 +4420,38 @@
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
+          <t>Fideicomiso Promotor de Proyectos Económicos y de Bienestar Social</t>
         </is>
       </c>
       <c r="C38" s="0">
-        <v>5676</v>
+        <v>5682</v>
       </c>
       <c r="D38" s="0">
         <v>2022</v>
       </c>
       <c r="E38" s="0" t="inlineStr">
         <is>
-          <t>Informar quincenalmente el estatus de atención de los folios canalizados a las dependencias integradas a la PTLEQ </t>
+          <t>Acercamiento con los titulares de las diferentes instancias para conocer sus necesidades de proyecto de obra para bienestar social</t>
         </is>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>Informar quincenalmente el estatus de atención de los folios canalizados a las dependencias integradas a la PTLEQ </t>
+          <t>Acercamiento con los titulares de las diferentes instancias para conocer sus necesidades de proyecto de obra para bienestar social.</t>
         </is>
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
-          <t>Gestionar que el 80 por ciento de los folios canalizados a las dependencias estatales sean atendidos en tiempo de acuerdo a la Plataforma de Trámites en Línea (PTLEQ).</t>
+          <t>Apoyo para la realización de ejecución de proyectos con diferentes instancias en obras para el bienestar social.</t>
         </is>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>Monitorear la evolución de los tableros</t>
+          <t>Apoyo para la realización de ejecución de proyectos con diferentes instancias en obras para el bienestar social.</t>
         </is>
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J38" s="0" t="inlineStr">
@@ -4467,7 +4465,7 @@
         </is>
       </c>
       <c r="L38" s="0">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N38" s="0" t="inlineStr">
         <is>
@@ -4539,38 +4537,38 @@
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
+          <t>Fideicomiso Promotor de Proyectos Económicos y de Bienestar Social</t>
         </is>
       </c>
       <c r="C39" s="0">
-        <v>5677</v>
+        <v>5683</v>
       </c>
       <c r="D39" s="0">
         <v>2022</v>
       </c>
       <c r="E39" s="0" t="inlineStr">
         <is>
-          <t>Aplicar encuestas de percepción a los ciudadanos que fueron canalizados mediante la Plataforma de Trámites en Línea del Estado de Querétaro (PTLEQ).</t>
+          <t>Reunión con el fiduciario en cuanto al tema de la actualización del contrato, y reunión con la Dirección de Organización para el tema actualización del reglamento y manual de organización.</t>
         </is>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>Aplicar encuestas de percepción a los ciudadanos que fueron canalizados mediante la Plataforma de Trámites en Línea del Estado de Querétaro (PTLEQ).</t>
+          <t>Reunión con el fiduciario en cuanto al tema de la actualización del contrato, y reunión con la Dirección de Organización para el tema actualización del reglamento y manual de organización.</t>
         </is>
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
-          <t>Aumentar de 8.9 a 9.2 la calificación ciudadana otorgada al personal del área</t>
+          <t>Regularizar y actualizar el contrato de QRONOS, así como reglamento y manual de organización de acuerdo a las funciones de la estructura orgánica de QRONOS.</t>
         </is>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>Evaluar la percepción ciudadana del servicio brindado por el personal del Centro de Conexión</t>
+          <t>Regularizar y actualizar el contrato de QRONOS, así como reglamento y manual de organización de acuerdo a las funciones de la estructura orgánica de QRONOS.</t>
         </is>
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>63. Pasar del 25° a los primeros 10 lugares en el indicador de tiempo requerido para cumplir con el marco regulatorio.</t>
         </is>
       </c>
       <c r="J39" s="0" t="inlineStr">
@@ -4584,7 +4582,7 @@
         </is>
       </c>
       <c r="L39" s="0">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="N39" s="0" t="inlineStr">
         <is>
@@ -4598,12 +4596,12 @@
       </c>
       <c r="P39" s="0" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q39" s="0" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R39" s="0" t="inlineStr">
@@ -4656,44 +4654,44 @@
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
+          <t>Oficialía Mayor</t>
         </is>
       </c>
       <c r="C40" s="0">
-        <v>5679</v>
+        <v>4965</v>
       </c>
       <c r="D40" s="0">
         <v>2022</v>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>Realizar campaña de difusión regional</t>
+          <t>Comunicar al personal de jefe de departamento u homologos, directores y titulares de las dependencias del sector centralizado del Poder Ejecutivo del Estado de Querétaro en el proyecto de "Poder Querétaro"</t>
         </is>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>Realizar campaña de difusión regional</t>
-        </is>
-      </c>
-      <c r="G40" s="0" t="inlineStr">
-        <is>
-          <t>Incrementar en un 20 por ciento  el número de solicitudes en la región.</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>Consolidar la oficina regional de Atención Ciudadana Jalpan
-</t>
+          <t>Comunicar al personal de jefe de departamento u homologos, directores y titulares de las dependencias del sector centralizado del Poder Ejecutivo del Estado de Querétaro en el curso de Alineación Positiva.</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Contar con un gobierno eficiente mejorando los servicios, clima laboral, simplificando procesos e implementando la cultura de atención personalizada al ciudadano en los servidores públicos de la Administración Publica Estatal. 
+Participación del 70% del personal en la encuesta de clima laboral del Control Interno.</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>Mejorar la atención personalizada al ciudadano en el sector público, conforme a los criterios rectores de legalidad, competitividad, libre acceso, respeto, trabajo digno, responsabilidad social, sentido de urgencia, comunicación.</t>
         </is>
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K40" s="0" t="inlineStr">
@@ -4702,7 +4700,7 @@
         </is>
       </c>
       <c r="L40" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N40" s="0" t="inlineStr">
         <is>
@@ -4774,38 +4772,38 @@
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
+          <t>Oficialía Mayor</t>
         </is>
       </c>
       <c r="C41" s="0">
-        <v>5680</v>
+        <v>4973</v>
       </c>
       <c r="D41" s="0">
         <v>2022</v>
       </c>
       <c r="E41" s="0" t="inlineStr">
         <is>
-          <t>Efectuar reuniones en comunidades de la región</t>
+          <t>Analizar los procesos de las direcciones para identificar los que requieren atención inmediata para proponer  un proyecto de trabajo de automatización..</t>
         </is>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>Efectuar reuniones en comunidades de la región</t>
+          <t>Analizar los procesos de las direcciones para identificar los que requieren atención inmediata para proponer un proyecto de trabajo de automatización..</t>
         </is>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
-          <t>Incrementar en un 20%  el número de solicitudes en la región</t>
+          <t>Reducir en un 30% tiempos de respuesta de la Oficialía Mayor, a los requerimientos administrativos de las dependencias del sector central del Poder Ejecutivo del Estado de Querétaro y ciudadanía con la implementación de las tecnologías de la información para la automatización y simplifación de tramites y procesos </t>
         </is>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
-          <t>Consolidar la oficina regional de Atención Ciudadana Jalpan</t>
+          <t>Automatización de procesos de las Direcciones de la Oficialía Mayor.</t>
         </is>
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
@@ -4819,7 +4817,7 @@
         </is>
       </c>
       <c r="L41" s="0">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N41" s="0" t="inlineStr">
         <is>
@@ -4891,38 +4889,38 @@
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
+          <t>Oficialía Mayor</t>
         </is>
       </c>
       <c r="C42" s="0">
-        <v>5603</v>
+        <v>4974</v>
       </c>
       <c r="D42" s="0">
         <v>2022</v>
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>Realizar sesiones y mesas de trabajo con las dependencias.</t>
+          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
         </is>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>Realizar sesiones y mesas de trabajo con las dependencias.</t>
+          <t>Crear un aplicativo Web para que el solicitante pueda iniciar el trámite de arrendamiento del inmueble que requiera sea el Auditorio Josefa Ortiz de Domínguez y/o el Estadio Corregidora.</t>
         </is>
       </c>
       <c r="G42" s="0" t="inlineStr">
         <is>
-          <t>Publicación del Plan Estatal de Desarrollo 2021 - 2027 en tiempo, forma y cumpliendo con las reformas legales que se requieren.</t>
+          <t>Reducir en un 30% tiempos de respuesta de la Oficialía Mayor, a los requerimientos administrativos de las dependencias del sector central del Poder Ejecutivo del Estado de Querétaro y ciudadanía con la implementación de las tecnologías de la información para la automatización y simplifación de tramites y procesos </t>
         </is>
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
-          <t>Coordinar esfuerzos con las diferentes dependencias del Poder Ejecutivo para definir los retos, objetivos, estrategias y líneas de acción a seguir duante la administración.</t>
+          <t>Implementación de manera electrónica el proceso de solicitud de arrendamiento de bienes inmuebles de dominio público a cargo de la oficialía Mayor</t>
         </is>
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
@@ -4936,7 +4934,7 @@
         </is>
       </c>
       <c r="L42" s="0">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N42" s="0" t="inlineStr">
         <is>
@@ -5008,38 +5006,38 @@
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
+          <t>Oficialía Mayor</t>
         </is>
       </c>
       <c r="C43" s="0">
-        <v>5604</v>
+        <v>4976</v>
       </c>
       <c r="D43" s="0">
         <v>2022</v>
       </c>
       <c r="E43" s="0" t="inlineStr">
         <is>
-          <t>Consolidación y seguimiento del Plan Estatal de Desarrollo 2021-2027  </t>
+          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>Consolidación y seguimiento del Plan Estatal de Desarrollo 2021-2027  </t>
+          <t>Crear plataforma digital para que las personas físicas o morales puedan registrarse o refrendarse en el padrón de Proveedores del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="G43" s="0" t="inlineStr">
         <is>
-          <t>Publicación del Plan Estatal de Desarrollo 2021 - 2027 en tiempo, forma y cumpliendo con las reformas legales que se requieren y dar seguimiento en cuanto a planeación dinámica. </t>
+          <t>Reducir en un 30% tiempos de respuesta de la Oficialía Mayor, a los requerimientos administrativos de las dependencias del sector central del Poder Ejecutivo del Estado de Querétaro y ciudadanía con la implementación de las tecnologías de la información para la automatización y simplifación de tramites y procesos </t>
         </is>
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
-          <t>Coordinar esfuerzos con las diferentes dependencias del Poder Ejecutivo para definir los retos, objetivos, estrategias y líneas de acción a seguir durante la administración.</t>
+          <t>Digitalizar el proceso de refrendo y registro en el Padrón de Proveedores del PEEQ.</t>
         </is>
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
@@ -5053,11 +5051,11 @@
         </is>
       </c>
       <c r="L43" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="0" t="inlineStr">
         <is>
-          <t>10440000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O43" s="0" t="inlineStr">
@@ -5125,38 +5123,38 @@
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
+          <t>Oficialía Mayor</t>
         </is>
       </c>
       <c r="C44" s="0">
-        <v>5605</v>
+        <v>4978</v>
       </c>
       <c r="D44" s="0">
         <v>2022</v>
       </c>
       <c r="E44" s="0" t="inlineStr">
         <is>
-          <t>Presentación del Plan Estatal de Desarrollo Querétaro 2021 - 2027</t>
+          <t>Renovación de la flotilla vehicular en un arrendamiento integral que incluya mantenmientos preventivos, correctivos, gps, seguros, impuestos y derechos, entre otros.</t>
         </is>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>Presentación del Plan Estatal de Desarrollo Querétaro 2021 - 2027</t>
+          <t>Renovación de la flotilla vehicular en un arrendamiento integral que incluya mantenmientos preventivos, correctivos, gps, seguros, impuestos y derechos, entre otros.</t>
         </is>
       </c>
       <c r="G44" s="0" t="inlineStr">
         <is>
-          <t>Publicación del Plan Estatal de Desarrollo 2021 - 2027 en tiempo, forma y cumpliendo con las reformas legales que se requieren.</t>
+          <t> Reducir en un 20% los costos de operación y mantenimiento de la flotilla vehicular del Poder Ejecutivo del Estado de Querétaro respecto al  ejercicio 2021</t>
         </is>
       </c>
       <c r="H44" s="0" t="inlineStr">
         <is>
-          <t>Coordinar esfuerzos con las diferentes dependencias del Poder Ejecutivo para definir los retos, objetivos, estrategias y líneas de acción a seguir duante la administración.</t>
+          <t>Obtener una flotilla vehicular actualizada con un esquema de contratación diferente a la enajenación</t>
         </is>
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J44" s="0" t="inlineStr">
@@ -5166,15 +5164,20 @@
       </c>
       <c r="K44" s="0" t="inlineStr">
         <is>
-          <t>2022-02-21</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="L44" s="0">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="M44" s="0" t="inlineStr">
+        <is>
+          <t>ARRENDAMIENTO DE VEHICULOS PARA LAS DIFERENTES ÁREAS ADMINISTRATIVAS DEL PODER EJECUTIVO DEL ESTADO DE QUERÉTARO</t>
+        </is>
       </c>
       <c r="N44" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>47395860.00</t>
         </is>
       </c>
       <c r="O44" s="0" t="inlineStr">
@@ -5242,38 +5245,39 @@
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
+          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
         </is>
       </c>
       <c r="C45" s="0">
-        <v>5606</v>
+        <v>5672</v>
       </c>
       <c r="D45" s="0">
         <v>2022</v>
       </c>
       <c r="E45" s="0" t="inlineStr">
         <is>
-          <t>Conformación de equipo con integrantes internos y externos .</t>
-        </is>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>Conformación de equipo con integrantes internos y externos .</t>
+          <t>Actualizar o sustituir equipos de cómputo adecuados para la operación del área</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Actualizar o sustituir equipos de cómputo para la operación del área
+</t>
         </is>
       </c>
       <c r="G45" s="0" t="inlineStr">
         <is>
-          <t>Preparar las  bases para la preparación del Plan Estatal de Desarrollo 2050. </t>
+          <t>Atender el 90 por ciento de las llamadas recibidas en la línea de atención ciudadana.</t>
         </is>
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
-          <t>Definición de fechas, recursos y plan de trabajo para la elaboración del Plan Querétaro 2050.</t>
+          <t>Fortalecer el centro de llamadas para brindar orientación y atención a los ciudadanos del estado.</t>
         </is>
       </c>
       <c r="I45" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
@@ -5283,15 +5287,20 @@
       </c>
       <c r="K45" s="0" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="L45" s="0">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="M45" s="0" t="inlineStr">
+        <is>
+          <t>Call Center de Atención Ciudadana</t>
+        </is>
       </c>
       <c r="N45" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>19782882.32</t>
         </is>
       </c>
       <c r="O45" s="0" t="inlineStr">
@@ -5359,38 +5368,38 @@
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
+          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
         </is>
       </c>
       <c r="C46" s="0">
-        <v>5611</v>
+        <v>5673</v>
       </c>
       <c r="D46" s="0">
         <v>2022</v>
       </c>
       <c r="E46" s="0" t="inlineStr">
         <is>
-          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos. </t>
+          <t>Integrar y capacitar al nuevo personal del área</t>
         </is>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos. </t>
+          <t>Integrar y capacitar al nuevo personal del área</t>
         </is>
       </c>
       <c r="G46" s="0" t="inlineStr">
         <is>
-          <t>Cumplimiento del 80 por cientode los objetivos de las dependencias.</t>
+          <t>Atender el 90 por ciento de las llamadas recibidas en la línea de atención ciudadana.</t>
         </is>
       </c>
       <c r="H46" s="0" t="inlineStr">
         <is>
-          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos. </t>
+          <t>Fortalecer el centro de llamadas para brindar orientación y atención a los ciudadanos del estado.</t>
         </is>
       </c>
       <c r="I46" s="0" t="inlineStr">
         <is>
-          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
@@ -5404,7 +5413,7 @@
         </is>
       </c>
       <c r="L46" s="0">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="N46" s="0" t="inlineStr">
         <is>
@@ -5476,43 +5485,43 @@
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
+          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
         </is>
       </c>
       <c r="C47" s="0">
-        <v>5612</v>
+        <v>5675</v>
       </c>
       <c r="D47" s="0">
         <v>2022</v>
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
-          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+          <t>Tableros de seguimiento </t>
         </is>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
+          <t>Generar tableros de seguimiento</t>
         </is>
       </c>
       <c r="G47" s="0" t="inlineStr">
         <is>
-          <t>Cumplimiento del 80 por ciento de los objetivos de las dependencias.</t>
+          <t>Gestionar que el 80 por ciento de los folios canalizados a las dependencias sean atendidos en tiempo de acuerdo a la Plataforma de Trámites en Línea (PTLEQ).</t>
         </is>
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
-          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos. </t>
+          <t>Automatizar tableros de seguimiento</t>
         </is>
       </c>
       <c r="I47" s="0" t="inlineStr">
         <is>
-          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K47" s="0" t="inlineStr">
@@ -5521,11 +5530,11 @@
         </is>
       </c>
       <c r="L47" s="0">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="N47" s="0" t="inlineStr">
         <is>
-          <t>242788.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O47" s="0" t="inlineStr">
@@ -5593,43 +5602,43 @@
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
+          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
         </is>
       </c>
       <c r="C48" s="0">
-        <v>5613</v>
+        <v>5676</v>
       </c>
       <c r="D48" s="0">
         <v>2022</v>
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
-          <t>Dar capacitaciones para el uso de la nueva plataforma de seguimiento.</t>
+          <t>Informar quincenalmente el estatus de atención de los folios canalizados a las dependencias integradas a la PTLEQ </t>
         </is>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>Dar capacitaciones para el uso de la nueva plataforma de seguimiento.</t>
+          <t>Informar quincenalmente el estatus de atención de los folios canalizados a las dependencias integradas a la PTLEQ </t>
         </is>
       </c>
       <c r="G48" s="0" t="inlineStr">
         <is>
-          <t>Cumplimiento del 80 por ciento de los objetivos de las dependencias.</t>
+          <t>Gestionar que el 80 por ciento de los folios canalizados a las dependencias estatales sean atendidos en tiempo de acuerdo a la Plataforma de Trámites en Línea (PTLEQ).</t>
         </is>
       </c>
       <c r="H48" s="0" t="inlineStr">
         <is>
-          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos.</t>
+          <t>Monitorear la evolución de los tableros</t>
         </is>
       </c>
       <c r="I48" s="0" t="inlineStr">
         <is>
-          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J48" s="0" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K48" s="0" t="inlineStr">
@@ -5638,7 +5647,7 @@
         </is>
       </c>
       <c r="L48" s="0">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N48" s="0" t="inlineStr">
         <is>
@@ -5710,43 +5719,43 @@
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
+          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
         </is>
       </c>
       <c r="C49" s="0">
-        <v>5614</v>
+        <v>5677</v>
       </c>
       <c r="D49" s="0">
         <v>2022</v>
       </c>
       <c r="E49" s="0" t="inlineStr">
         <is>
-          <t>Dar seguimiento a la generación de reportes de avance de POA de manera mensual.</t>
+          <t>Aplicar encuestas de percepción a los ciudadanos que fueron canalizados mediante la Plataforma de Trámites en Línea del Estado de Querétaro (PTLEQ).</t>
         </is>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>Dar seguimiento a la generación de reportes de avance de POA de manera mensual.</t>
+          <t>Aplicar encuestas de percepción a los ciudadanos que fueron canalizados mediante la Plataforma de Trámites en Línea del Estado de Querétaro (PTLEQ).</t>
         </is>
       </c>
       <c r="G49" s="0" t="inlineStr">
         <is>
-          <t>Cumplimiento del 80 por ciento de los objetivos de las dependencias.</t>
+          <t>Aumentar de 8.9 a 9.2 la calificación ciudadana otorgada al personal del área</t>
         </is>
       </c>
       <c r="H49" s="0" t="inlineStr">
         <is>
-          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos.</t>
+          <t>Evaluar la percepción ciudadana del servicio brindado por el personal del Centro de Conexión</t>
         </is>
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
-          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K49" s="0" t="inlineStr">
@@ -5755,7 +5764,7 @@
         </is>
       </c>
       <c r="L49" s="0">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N49" s="0" t="inlineStr">
         <is>
@@ -5769,12 +5778,12 @@
       </c>
       <c r="P49" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>79</t>
         </is>
       </c>
       <c r="Q49" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>119</t>
         </is>
       </c>
       <c r="R49" s="0" t="inlineStr">
@@ -5827,43 +5836,44 @@
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
+          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
         </is>
       </c>
       <c r="C50" s="0">
-        <v>5615</v>
+        <v>5679</v>
       </c>
       <c r="D50" s="0">
         <v>2022</v>
       </c>
       <c r="E50" s="0" t="inlineStr">
         <is>
-          <t>Elaborar el informe de gobierno.</t>
+          <t>Realizar campaña de difusión regional</t>
         </is>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>Elaborar el informe de gobierno.</t>
+          <t>Realizar campaña de difusión regional</t>
         </is>
       </c>
       <c r="G50" s="0" t="inlineStr">
         <is>
-          <t>Cumplimiento del 80 por ciento de los objetivos de las dependencias.</t>
-        </is>
-      </c>
-      <c r="H50" s="0" t="inlineStr">
-        <is>
-          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos. </t>
+          <t>Incrementar en un 20 por ciento  el número de solicitudes en la región.</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Consolidar la oficina regional de Atención Ciudadana Jalpan
+</t>
         </is>
       </c>
       <c r="I50" s="0" t="inlineStr">
         <is>
-          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J50" s="0" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="K50" s="0" t="inlineStr">
@@ -5944,43 +5954,43 @@
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
+          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
         </is>
       </c>
       <c r="C51" s="0">
-        <v>5616</v>
+        <v>5680</v>
       </c>
       <c r="D51" s="0">
         <v>2022</v>
       </c>
       <c r="E51" s="0" t="inlineStr">
         <is>
-          <t>Elaboración de propuestas de políticas públicas.</t>
+          <t>Efectuar reuniones en comunidades de la región</t>
         </is>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>Elaboración de propuestas de políticas públicas.</t>
+          <t>Efectuar reuniones en comunidades de la región</t>
         </is>
       </c>
       <c r="G51" s="0" t="inlineStr">
         <is>
-          <t>Apoyar en el  análisis del 100 por ciento de los proyectos, programas y políticas públicas que se soliciten a la DPyS.</t>
+          <t>Incrementar en un 20%  el número de solicitudes en la región</t>
         </is>
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
-          <t>Investigar y analizar las tendencias y modelos de gobierno y políticas públicas internacionales.</t>
+          <t>Consolidar la oficina regional de Atención Ciudadana Jalpan</t>
         </is>
       </c>
       <c r="I51" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J51" s="0" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K51" s="0" t="inlineStr">
@@ -5989,11 +5999,11 @@
         </is>
       </c>
       <c r="L51" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N51" s="0" t="inlineStr">
         <is>
-          <t>417600.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O51" s="0" t="inlineStr">
@@ -6061,61 +6071,61 @@
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
+          <t>SECRETARIA PARTICULAR DEL C. GOBERNADOR</t>
         </is>
       </c>
       <c r="C52" s="0">
-        <v>6103</v>
+        <v>6426</v>
       </c>
       <c r="D52" s="0">
         <v>2022</v>
       </c>
       <c r="E52" s="0" t="inlineStr">
         <is>
-          <t>Realizar encuestas de seguimiento y monitoreo del Plan Estatal de Desarrollo 2021-2027</t>
+          <t>Hola mundo</t>
         </is>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>Realizar encuestas de seguimiento y monitoreo del Plan Estatal de Desarrollo 2021-2027</t>
+          <t>Hola </t>
         </is>
       </c>
       <c r="G52" s="0" t="inlineStr">
         <is>
-          <t>Seguimiento del cumplimiento y percepción del Plan Estatal de Desarrollo 2021 - 2027 </t>
+          <t>hah</t>
         </is>
       </c>
       <c r="H52" s="0" t="inlineStr">
         <is>
-          <t>Establecer contacto con ciudadanos para conocer la percepción y cumplimiento del Plan Estatal de Desarrollo 2021-2027</t>
+          <t>hh</t>
         </is>
       </c>
       <c r="I52" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J52" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="K52" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="L52" s="0">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N52" s="0" t="inlineStr">
         <is>
-          <t>1459280.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O52" s="0" t="inlineStr">
         <is>
-          <t>551902.22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P52" s="0" t="inlineStr">
@@ -6178,44 +6188,43 @@
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
       <c r="C53" s="0">
-        <v>5700</v>
+        <v>5603</v>
       </c>
       <c r="D53" s="0">
         <v>2022</v>
       </c>
       <c r="E53" s="0" t="inlineStr">
         <is>
-          <t>DESARROLLAR  PROPUESTAS INNOVADORAS DE POLÍTICAS PÚBLICAS</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>DESARROLLAR  PROPUESTAS INNOVADORAS DE POLÍTICAS PÚBLICAS
-</t>
+          <t>Realizar sesiones y mesas de trabajo con las dependencias.</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>Realizar sesiones y mesas de trabajo con las dependencias.</t>
         </is>
       </c>
       <c r="G53" s="0" t="inlineStr">
         <is>
-          <t>APROBACIÓN DE LA POLITICA ESTATAL ANTICORRUPCIÓN</t>
+          <t>Publicación del Plan Estatal de Desarrollo 2021 - 2027 en tiempo, forma y cumpliendo con las reformas legales que se requieren.</t>
         </is>
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
-          <t>APROBACIÓN DE LA POLITICA ESTATAL ANTICORRUPCIÓN</t>
+          <t>Coordinar esfuerzos con las diferentes dependencias del Poder Ejecutivo para definir los retos, objetivos, estrategias y líneas de acción a seguir duante la administración.</t>
         </is>
       </c>
       <c r="I53" s="0" t="inlineStr">
         <is>
-          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J53" s="0" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K53" s="0" t="inlineStr">
@@ -6224,7 +6233,7 @@
         </is>
       </c>
       <c r="L53" s="0">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N53" s="0" t="inlineStr">
         <is>
@@ -6296,45 +6305,43 @@
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
       <c r="C54" s="0">
-        <v>5701</v>
+        <v>5604</v>
       </c>
       <c r="D54" s="0">
         <v>2022</v>
       </c>
       <c r="E54" s="0" t="inlineStr">
         <is>
-          <t>DIFUNDIR Y ACTUALIZAR LA INFORMACIÓN PÚBLICA. DAR TRÁMITE A LAS SOLICITUDES DE ACCESO A LA INFORMACIÓN DEL EJERCICIO DE DERECHOS ARCO.</t>
+          <t>Consolidación y seguimiento del Plan Estatal de Desarrollo 2021-2027  </t>
         </is>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>DIFUNDIR Y ACTUALIZAR LA INFORMACIÓN PÚBLICA. DAR TRÁMITE A LAS SOLICITUDES DE ACCESO A LA INFORMACIÓN DEL EJERCICIO DE DERECHOS ARCO.</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>FOMENTAR AL 100% LA CULTURA DE LA TRANSPARENCIA Y LA RENDICIÓN DE CUENTAS
-</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>FORTALECIMIENTO DE UN GOBIERNO TRANSPARENTE  Y DE RENDICIÓN DE CUENTAS
-</t>
+          <t>Consolidación y seguimiento del Plan Estatal de Desarrollo 2021-2027  </t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
+        <is>
+          <t>Publicación del Plan Estatal de Desarrollo 2021 - 2027 en tiempo, forma y cumpliendo con las reformas legales que se requieren y dar seguimiento en cuanto a planeación dinámica. </t>
+        </is>
+      </c>
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>Coordinar esfuerzos con las diferentes dependencias del Poder Ejecutivo para definir los retos, objetivos, estrategias y líneas de acción a seguir durante la administración.</t>
         </is>
       </c>
       <c r="I54" s="0" t="inlineStr">
         <is>
-          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J54" s="0" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K54" s="0" t="inlineStr">
@@ -6343,11 +6350,16 @@
         </is>
       </c>
       <c r="L54" s="0">
-        <v>34</v>
+        <v>100</v>
+      </c>
+      <c r="M54" s="0" t="inlineStr">
+        <is>
+          <t>Estrategia integral para la consolidación y seguimiento del Plan Estatal de Desarrollo 2021- 2027 del Estado de Querétaro</t>
+        </is>
       </c>
       <c r="N54" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>10440000.00</t>
         </is>
       </c>
       <c r="O54" s="0" t="inlineStr">
@@ -6415,48 +6427,48 @@
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
       <c r="C55" s="0">
-        <v>5702</v>
+        <v>5605</v>
       </c>
       <c r="D55" s="0">
         <v>2022</v>
       </c>
       <c r="E55" s="0" t="inlineStr">
         <is>
-          <t>ATENDER LAS RECOMENDACIONES EMITIDAS A PARTICULARES</t>
+          <t>Presentación del Plan Estatal de Desarrollo Querétaro 2021 - 2027</t>
         </is>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>ATENDER LAS RECOMENDACIONES EMITIDAS A PARTICULARES</t>
+          <t>Presentación del Plan Estatal de Desarrollo Querétaro 2021 - 2027</t>
         </is>
       </c>
       <c r="G55" s="0" t="inlineStr">
         <is>
-          <t>IDENTIFICAR AL 100 POR CIENTO LAS RECOMENDACIONES EN EL MARCO DE OPERACIÓN DE LOS PARTICULARES DEL SISTEMA ESTATAL ANTICORRUPCIÓN</t>
+          <t>Publicación del Plan Estatal de Desarrollo 2021 - 2027 en tiempo, forma y cumpliendo con las reformas legales que se requieren.</t>
         </is>
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
-          <t>DAR SEGUIMIENTO A LAS RECOMENDACIONES EMITIDAS A PARTICULARES </t>
+          <t>Coordinar esfuerzos con las diferentes dependencias del Poder Ejecutivo para definir los retos, objetivos, estrategias y líneas de acción a seguir duante la administración.</t>
         </is>
       </c>
       <c r="I55" s="0" t="inlineStr">
         <is>
-          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K55" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-02-21</t>
         </is>
       </c>
       <c r="L55" s="0">
@@ -6532,54 +6544,52 @@
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
       <c r="C56" s="0">
-        <v>5703</v>
+        <v>5606</v>
       </c>
       <c r="D56" s="0">
         <v>2022</v>
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
-          <t>ATENDER LAS RECOMENDACIONES EMITIDAS A ENTES PÚBLICOS </t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>ATENDER LAS RECOMENDACIONES EMITIDAS A ENTES PÚBLICOS 
-</t>
+          <t>Conformación de equipo con integrantes internos y externos .</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>Conformación de equipo con integrantes internos y externos .</t>
         </is>
       </c>
       <c r="G56" s="0" t="inlineStr">
         <is>
-          <t>IDENTIFICAR  LAS RECOMENDACIONES EN EL MARCO DE OPERACIÓN DE LOS ENTES PÚBLICOS DEL SISTEMA ESTATAL ANTICORRUPCIÓN AL 100%</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>DAR SEGUIMIENTO A LAS RECOMENDACIONES EMITIDAS  A ENTES PÚBLICOS
-</t>
+          <t>Preparar las  bases para la preparación del Plan Estatal de Desarrollo 2050. </t>
+        </is>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>Definición de fechas, recursos y plan de trabajo para la elaboración del Plan Querétaro 2050.</t>
         </is>
       </c>
       <c r="I56" s="0" t="inlineStr">
         <is>
-          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J56" s="0" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K56" s="0" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="L56" s="0">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N56" s="0" t="inlineStr">
         <is>
@@ -6651,43 +6661,43 @@
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
       <c r="C57" s="0">
-        <v>5704</v>
+        <v>5611</v>
       </c>
       <c r="D57" s="0">
         <v>2022</v>
       </c>
       <c r="E57" s="0" t="inlineStr">
         <is>
-          <t>PROVEER INSUMOS Y ASISTENCIA TÉCNICA AL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN</t>
+          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos. </t>
         </is>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>PROVEER INSUMOS Y ASISTENCIA TÉCNICA AL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN</t>
+          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos. </t>
         </is>
       </c>
       <c r="G57" s="0" t="inlineStr">
         <is>
-          <t>FUNGIR COMO ÓRGANO DE APOYO TÉCNICO DEL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN EN LAS 4 SESIONES ORDINARIAS Y EN LA TOTALIDAD DE LAS EXTRAORDINARIAS</t>
+          <t>Cumplimiento del 80 por cientode los objetivos de las dependencias.</t>
         </is>
       </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
-          <t>VALIDAR POR EL COMITÉ COORDINADOR LOS  INSUMOS Y ASISTENCIA TÉCNICA </t>
+          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos. </t>
         </is>
       </c>
       <c r="I57" s="0" t="inlineStr">
         <is>
-          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
+          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
         </is>
       </c>
       <c r="J57" s="0" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K57" s="0" t="inlineStr">
@@ -6696,7 +6706,7 @@
         </is>
       </c>
       <c r="L57" s="0">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N57" s="0" t="inlineStr">
         <is>
@@ -6768,43 +6778,43 @@
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
       <c r="C58" s="0">
-        <v>5705</v>
+        <v>5612</v>
       </c>
       <c r="D58" s="0">
         <v>2022</v>
       </c>
       <c r="E58" s="0" t="inlineStr">
         <is>
-          <t>DAR SEGUIMIENTO A LOS ACUERDOS DEL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN</t>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
         </is>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>DAR SEGUIMIENTO A LOS ACUERDOS DEL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN</t>
+          <t>Alineación de los POA de las dependencias y organismos con el PED 2021 - 2027</t>
         </is>
       </c>
       <c r="G58" s="0" t="inlineStr">
         <is>
-          <t>BRINDAR  APOYO AL COMITÉ COORDINADOR  PARA LA  ELABORACIÓN, IMPRESIÓN Y PUBLICACIÓN 40 EJEMPLARES DEL INFORME ANUAL </t>
+          <t>Cumplimiento del 80 por ciento de los objetivos de las dependencias.</t>
         </is>
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
-          <t>ATENDER LOS REQUERIMIENTOS DEL PROGRAMA ANUAL DE TRABAJO DEL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN </t>
+          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos. </t>
         </is>
       </c>
       <c r="I58" s="0" t="inlineStr">
         <is>
-          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
+          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
         </is>
       </c>
       <c r="J58" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="K58" s="0" t="inlineStr">
@@ -6815,9 +6825,14 @@
       <c r="L58" s="0">
         <v>100</v>
       </c>
+      <c r="M58" s="0" t="inlineStr">
+        <is>
+          <t>Asesoría técnica para dar soporte en la elaboración de las Matrices de Indicadores de Resultados </t>
+        </is>
+      </c>
       <c r="N58" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>242788.00</t>
         </is>
       </c>
       <c r="O58" s="0" t="inlineStr">
@@ -6885,44 +6900,43 @@
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
       <c r="C59" s="0">
-        <v>5505</v>
+        <v>5613</v>
       </c>
       <c r="D59" s="0">
         <v>2022</v>
       </c>
       <c r="E59" s="0" t="inlineStr">
         <is>
-          <t>Marco Normativo (FIEL ESTATAL)</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>Marco Normativo 
-(FIEL ESTATAL)</t>
+          <t>Dar capacitaciones para el uso de la nueva plataforma de seguimiento.</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>Dar capacitaciones para el uso de la nueva plataforma de seguimiento.</t>
         </is>
       </c>
       <c r="G59" s="0" t="inlineStr">
         <is>
-          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
+          <t>Cumplimiento del 80 por ciento de los objetivos de las dependencias.</t>
         </is>
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>Firma electrónica avanzada</t>
+          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos.</t>
         </is>
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
         </is>
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="K59" s="0" t="inlineStr">
@@ -6931,7 +6945,7 @@
         </is>
       </c>
       <c r="L59" s="0">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N59" s="0" t="inlineStr">
         <is>
@@ -7003,43 +7017,43 @@
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
       <c r="C60" s="0">
-        <v>5506</v>
+        <v>5614</v>
       </c>
       <c r="D60" s="0">
         <v>2022</v>
       </c>
       <c r="E60" s="0" t="inlineStr">
         <is>
-          <t>Autoridad Certificadora</t>
+          <t>Dar seguimiento a la generación de reportes de avance de POA de manera mensual.</t>
         </is>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>Autoridad Certificadora</t>
+          <t>Dar seguimiento a la generación de reportes de avance de POA de manera mensual.</t>
         </is>
       </c>
       <c r="G60" s="0" t="inlineStr">
         <is>
-          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
+          <t>Cumplimiento del 80 por ciento de los objetivos de las dependencias.</t>
         </is>
       </c>
       <c r="H60" s="0" t="inlineStr">
         <is>
-          <t>Firma electrónica avanzada</t>
+          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos.</t>
         </is>
       </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="K60" s="0" t="inlineStr">
@@ -7052,12 +7066,12 @@
       </c>
       <c r="N60" s="0" t="inlineStr">
         <is>
-          <t>64960000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O60" s="0" t="inlineStr">
         <is>
-          <t>16240000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P60" s="0" t="inlineStr">
@@ -7120,43 +7134,43 @@
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
       <c r="C61" s="0">
-        <v>5507</v>
+        <v>5615</v>
       </c>
       <c r="D61" s="0">
         <v>2022</v>
       </c>
       <c r="E61" s="0" t="inlineStr">
         <is>
-          <t>Inicio de Certificaciones</t>
+          <t>Elaborar el informe de gobierno.</t>
         </is>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>Inicio de Certificaciones</t>
+          <t>Elaborar el informe de gobierno.</t>
         </is>
       </c>
       <c r="G61" s="0" t="inlineStr">
         <is>
-          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
+          <t>Cumplimiento del 80 por ciento de los objetivos de las dependencias.</t>
         </is>
       </c>
       <c r="H61" s="0" t="inlineStr">
         <is>
-          <t>Firma electrónica avanzada</t>
+          <t>Desarrollar un modelo de trabajo que permita dar seguimiento a los POA de cada una de las dependencias y organismos. </t>
         </is>
       </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
         </is>
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="K61" s="0" t="inlineStr">
@@ -7237,43 +7251,43 @@
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
       <c r="C62" s="0">
-        <v>5508</v>
+        <v>5616</v>
       </c>
       <c r="D62" s="0">
         <v>2022</v>
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
-          <t>Trámites en línea a través de la firma electrónica</t>
+          <t>Elaboración de propuestas de políticas públicas.</t>
         </is>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>Trámites en línea a través de la firma electrónica</t>
+          <t>Elaboración de propuestas de políticas públicas.</t>
         </is>
       </c>
       <c r="G62" s="0" t="inlineStr">
         <is>
-          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
+          <t>Apoyar en el  análisis del 100 por ciento de los proyectos, programas y políticas públicas que se soliciten a la DPyS.</t>
         </is>
       </c>
       <c r="H62" s="0" t="inlineStr">
         <is>
-          <t>Firma electrónica avanzada</t>
+          <t>Investigar y analizar las tendencias y modelos de gobierno y políticas públicas internacionales.</t>
         </is>
       </c>
       <c r="I62" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="K62" s="0" t="inlineStr">
@@ -7284,9 +7298,14 @@
       <c r="L62" s="0">
         <v>0</v>
       </c>
+      <c r="M62" s="0" t="inlineStr">
+        <is>
+          <t>Asesoría Especializada en Políticas Públicas</t>
+        </is>
+      </c>
       <c r="N62" s="0" t="inlineStr">
         <is>
-          <t>34800000.00</t>
+          <t>417600.00</t>
         </is>
       </c>
       <c r="O62" s="0" t="inlineStr">
@@ -7354,38 +7373,38 @@
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>SECRETARÍA DE PLANEACIÓN Y PARTICIPACIÓN CIUDADANA</t>
         </is>
       </c>
       <c r="C63" s="0">
-        <v>5510</v>
+        <v>6103</v>
       </c>
       <c r="D63" s="0">
         <v>2022</v>
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>Catastro web</t>
+          <t>Realizar encuestas de seguimiento y monitoreo del Plan Estatal de Desarrollo 2021-2027</t>
         </is>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>Catastro web</t>
+          <t>Realizar encuestas de seguimiento y monitoreo del Plan Estatal de Desarrollo 2021-2027</t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
         <is>
-          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
+          <t>Seguimiento del cumplimiento y percepción del Plan Estatal de Desarrollo 2021 - 2027 </t>
         </is>
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
-          <t>Catastro digital</t>
+          <t>Establecer contacto con ciudadanos para conocer la percepción y cumplimiento del Plan Estatal de Desarrollo 2021-2027</t>
         </is>
       </c>
       <c r="I63" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J63" s="0" t="inlineStr">
@@ -7399,16 +7418,21 @@
         </is>
       </c>
       <c r="L63" s="0">
-        <v>100</v>
+        <v>39</v>
+      </c>
+      <c r="M63" s="0" t="inlineStr">
+        <is>
+          <t>ENCUESTAS TELEFÓNICAS DE SEGUIMIENTO Y MONITOREO DEL PLAN ESTATAL DE DESARROLLO 2021-2027</t>
+        </is>
       </c>
       <c r="N63" s="0" t="inlineStr">
         <is>
-          <t>7093400.00</t>
+          <t>1459280.00</t>
         </is>
       </c>
       <c r="O63" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>551902.22</t>
         </is>
       </c>
       <c r="P63" s="0" t="inlineStr">
@@ -7471,43 +7495,44 @@
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
         </is>
       </c>
       <c r="C64" s="0">
-        <v>5511</v>
+        <v>5700</v>
       </c>
       <c r="D64" s="0">
         <v>2022</v>
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
-          <t>Vuelo fotogramétrico</t>
-        </is>
-      </c>
-      <c r="F64" s="0" t="inlineStr">
-        <is>
-          <t>Vuelo fotogramétrico</t>
+          <t>DESARROLLAR  PROPUESTAS INNOVADORAS DE POLÍTICAS PÚBLICAS</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>DESARROLLAR  PROPUESTAS INNOVADORAS DE POLÍTICAS PÚBLICAS
+</t>
         </is>
       </c>
       <c r="G64" s="0" t="inlineStr">
         <is>
-          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
+          <t>APROBACIÓN DE LA POLITICA ESTATAL ANTICORRUPCIÓN</t>
         </is>
       </c>
       <c r="H64" s="0" t="inlineStr">
         <is>
-          <t>Catastro digital</t>
+          <t>APROBACIÓN DE LA POLITICA ESTATAL ANTICORRUPCIÓN</t>
         </is>
       </c>
       <c r="I64" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J64" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="K64" s="0" t="inlineStr">
@@ -7516,16 +7541,16 @@
         </is>
       </c>
       <c r="L64" s="0">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N64" s="0" t="inlineStr">
         <is>
-          <t>21532500.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O64" s="0" t="inlineStr">
         <is>
-          <t>15660000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P64" s="0" t="inlineStr">
@@ -7588,43 +7613,45 @@
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
         </is>
       </c>
       <c r="C65" s="0">
-        <v>5512</v>
+        <v>5701</v>
       </c>
       <c r="D65" s="0">
         <v>2022</v>
       </c>
       <c r="E65" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
+          <t>DIFUNDIR Y ACTUALIZAR LA INFORMACIÓN PÚBLICA. DAR TRÁMITE A LAS SOLICITUDES DE ACCESO A LA INFORMACIÓN DEL EJERCICIO DE DERECHOS ARCO.</t>
         </is>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>Agenda de Gobierno Digital</t>
-        </is>
-      </c>
-      <c r="G65" s="0" t="inlineStr">
-        <is>
-          <t>Crear un Gobierno moderno, seguro y cercano a la gente%</t>
-        </is>
-      </c>
-      <c r="H65" s="0" t="inlineStr">
-        <is>
-          <t>Plan Querétaro Digital</t>
+          <t>DIFUNDIR Y ACTUALIZAR LA INFORMACIÓN PÚBLICA. DAR TRÁMITE A LAS SOLICITUDES DE ACCESO A LA INFORMACIÓN DEL EJERCICIO DE DERECHOS ARCO.</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>FOMENTAR AL 100% LA CULTURA DE LA TRANSPARENCIA Y LA RENDICIÓN DE CUENTAS
+</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>FORTALECIMIENTO DE UN GOBIERNO TRANSPARENTE  Y DE RENDICIÓN DE CUENTAS
+</t>
         </is>
       </c>
       <c r="I65" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J65" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="K65" s="0" t="inlineStr">
@@ -7633,7 +7660,7 @@
         </is>
       </c>
       <c r="L65" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N65" s="0" t="inlineStr">
         <is>
@@ -7705,43 +7732,43 @@
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
         </is>
       </c>
       <c r="C66" s="0">
-        <v>5513</v>
+        <v>5702</v>
       </c>
       <c r="D66" s="0">
         <v>2022</v>
       </c>
       <c r="E66" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de ejercicio rector de las TIC's</t>
+          <t>ATENDER LAS RECOMENDACIONES EMITIDAS A PARTICULARES</t>
         </is>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de ejercicio rector de las TIC's</t>
+          <t>ATENDER LAS RECOMENDACIONES EMITIDAS A PARTICULARES</t>
         </is>
       </c>
       <c r="G66" s="0" t="inlineStr">
         <is>
-          <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
+          <t>IDENTIFICAR AL 100 POR CIENTO LAS RECOMENDACIONES EN EL MARCO DE OPERACIÓN DE LOS PARTICULARES DEL SISTEMA ESTATAL ANTICORRUPCIÓN</t>
         </is>
       </c>
       <c r="H66" s="0" t="inlineStr">
         <is>
-          <t>Plan Querétaro Digital</t>
+          <t>DAR SEGUIMIENTO A LAS RECOMENDACIONES EMITIDAS A PARTICULARES </t>
         </is>
       </c>
       <c r="I66" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J66" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="K66" s="0" t="inlineStr">
@@ -7750,7 +7777,7 @@
         </is>
       </c>
       <c r="L66" s="0">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="N66" s="0" t="inlineStr">
         <is>
@@ -7822,43 +7849,45 @@
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
         </is>
       </c>
       <c r="C67" s="0">
-        <v>5514</v>
+        <v>5703</v>
       </c>
       <c r="D67" s="0">
         <v>2022</v>
       </c>
       <c r="E67" s="0" t="inlineStr">
         <is>
-          <t>Eficiencia de procesos administrativos, financieros y contables</t>
-        </is>
-      </c>
-      <c r="F67" s="0" t="inlineStr">
-        <is>
-          <t>Eficiencia de procesos administrativos, financieros y contables</t>
+          <t>ATENDER LAS RECOMENDACIONES EMITIDAS A ENTES PÚBLICOS </t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>ATENDER LAS RECOMENDACIONES EMITIDAS A ENTES PÚBLICOS 
+</t>
         </is>
       </c>
       <c r="G67" s="0" t="inlineStr">
         <is>
-          <t>Contar con un sistema oportuno, eficiente y tecnológico que permita realizar procesos administrativos, financieros y contables  en apego a la normatividad aplicable</t>
-        </is>
-      </c>
-      <c r="H67" s="0" t="inlineStr">
-        <is>
-          <t>Sistema Financiero</t>
+          <t>IDENTIFICAR  LAS RECOMENDACIONES EN EL MARCO DE OPERACIÓN DE LOS ENTES PÚBLICOS DEL SISTEMA ESTATAL ANTICORRUPCIÓN AL 100%</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>DAR SEGUIMIENTO A LAS RECOMENDACIONES EMITIDAS  A ENTES PÚBLICOS
+</t>
         </is>
       </c>
       <c r="I67" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J67" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="K67" s="0" t="inlineStr">
@@ -7867,7 +7896,7 @@
         </is>
       </c>
       <c r="L67" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N67" s="0" t="inlineStr">
         <is>
@@ -7939,43 +7968,43 @@
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
         </is>
       </c>
       <c r="C68" s="0">
-        <v>5515</v>
+        <v>5704</v>
       </c>
       <c r="D68" s="0">
         <v>2022</v>
       </c>
       <c r="E68" s="0" t="inlineStr">
         <is>
-          <t>Planeación para la implementación del nuevo sistema</t>
+          <t>PROVEER INSUMOS Y ASISTENCIA TÉCNICA AL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN</t>
         </is>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>Planeación para la implementación del nuevo sistema</t>
+          <t>PROVEER INSUMOS Y ASISTENCIA TÉCNICA AL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN</t>
         </is>
       </c>
       <c r="G68" s="0" t="inlineStr">
         <is>
-          <t>Contar con un sistema oportuno, eficiente y tecnológico que permita realizar procesos administrativos, financieros y contables  en apego a la normatividad aplicable</t>
+          <t>FUNGIR COMO ÓRGANO DE APOYO TÉCNICO DEL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN EN LAS 4 SESIONES ORDINARIAS Y EN LA TOTALIDAD DE LAS EXTRAORDINARIAS</t>
         </is>
       </c>
       <c r="H68" s="0" t="inlineStr">
         <is>
-          <t>Sistema Financiero</t>
+          <t>VALIDAR POR EL COMITÉ COORDINADOR LOS  INSUMOS Y ASISTENCIA TÉCNICA </t>
         </is>
       </c>
       <c r="I68" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J68" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="K68" s="0" t="inlineStr">
@@ -7984,7 +8013,7 @@
         </is>
       </c>
       <c r="L68" s="0">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N68" s="0" t="inlineStr">
         <is>
@@ -8056,38 +8085,38 @@
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Finanzas</t>
+          <t>Secretaría Ejecutiva del Sistema Estatal Anticorrupción</t>
         </is>
       </c>
       <c r="C69" s="0">
-        <v>5516</v>
+        <v>5705</v>
       </c>
       <c r="D69" s="0">
         <v>2022</v>
       </c>
       <c r="E69" s="0" t="inlineStr">
         <is>
-          <t>Implementación del sistema</t>
+          <t>DAR SEGUIMIENTO A LOS ACUERDOS DEL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN</t>
         </is>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>Implementación del sistema</t>
+          <t>DAR SEGUIMIENTO A LOS ACUERDOS DEL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN</t>
         </is>
       </c>
       <c r="G69" s="0" t="inlineStr">
         <is>
-          <t>Contar con un sistema oportuno, eficiente y tecnológico que permita realizar procesos administrativos, financieros y contables  en apego a la normatividad aplicable</t>
+          <t>BRINDAR  APOYO AL COMITÉ COORDINADOR  PARA LA  ELABORACIÓN, IMPRESIÓN Y PUBLICACIÓN 40 EJEMPLARES DEL INFORME ANUAL </t>
         </is>
       </c>
       <c r="H69" s="0" t="inlineStr">
         <is>
-          <t>Sistema Financiero</t>
+          <t>ATENDER LOS REQUERIMIENTOS DEL PROGRAMA ANUAL DE TRABAJO DEL COMITÉ COORDINADOR DEL SISTEMA ESTATAL ANTICORRUPCIÓN </t>
         </is>
       </c>
       <c r="I69" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J69" s="0" t="inlineStr">
@@ -8101,7 +8130,7 @@
         </is>
       </c>
       <c r="L69" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N69" s="0" t="inlineStr">
         <is>
@@ -8177,34 +8206,35 @@
         </is>
       </c>
       <c r="C70" s="0">
-        <v>5517</v>
+        <v>5505</v>
       </c>
       <c r="D70" s="0">
         <v>2022</v>
       </c>
       <c r="E70" s="0" t="inlineStr">
         <is>
-          <t>Arranque del Sistema</t>
-        </is>
-      </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t>Arranque del Sistema</t>
+          <t>Marco Normativo (FIEL ESTATAL)</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Marco Normativo 
+(FIEL ESTATAL)</t>
         </is>
       </c>
       <c r="G70" s="0" t="inlineStr">
         <is>
-          <t>Contar con un sistema oportuno, eficiente y tecnológico que permita realizar procesos administrativos, financieros y contables  en apego a la normatividad aplicable</t>
+          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
         </is>
       </c>
       <c r="H70" s="0" t="inlineStr">
         <is>
-          <t>Sistema Financiero</t>
+          <t>Firma electrónica avanzada</t>
         </is>
       </c>
       <c r="I70" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J70" s="0" t="inlineStr">
@@ -8294,34 +8324,34 @@
         </is>
       </c>
       <c r="C71" s="0">
-        <v>5518</v>
+        <v>5506</v>
       </c>
       <c r="D71" s="0">
         <v>2022</v>
       </c>
       <c r="E71" s="0" t="inlineStr">
         <is>
-          <t>Elaboración y Aprobación de la Ley Estatal de Disciplina</t>
+          <t>Autoridad Certificadora</t>
         </is>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>Elaboración y Aprobación de la Ley Estatal de Disciplina</t>
+          <t>Autoridad Certificadora</t>
         </is>
       </c>
       <c r="G71" s="0" t="inlineStr">
         <is>
-          <t>Eficientar los recursos financieros del sector central, organismos autónomos, entidades paraestatales y otras figuras que reciben recurso estatal.  </t>
+          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
         </is>
       </c>
       <c r="H71" s="0" t="inlineStr">
         <is>
-          <t> Disciplina Financiera Estatal</t>
+          <t>Firma electrónica avanzada</t>
         </is>
       </c>
       <c r="I71" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J71" s="0" t="inlineStr">
@@ -8337,14 +8367,19 @@
       <c r="L71" s="0">
         <v>0</v>
       </c>
+      <c r="M71" s="0" t="inlineStr">
+        <is>
+          <t>Sistema de cómputo para la administración eficiente de las Finanzas Públicas</t>
+        </is>
+      </c>
       <c r="N71" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>64960000.00</t>
         </is>
       </c>
       <c r="O71" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16240000</t>
         </is>
       </c>
       <c r="P71" s="0" t="inlineStr">
@@ -8411,34 +8446,34 @@
         </is>
       </c>
       <c r="C72" s="0">
-        <v>5519</v>
+        <v>5507</v>
       </c>
       <c r="D72" s="0">
         <v>2022</v>
       </c>
       <c r="E72" s="0" t="inlineStr">
         <is>
-          <t>Esquemas innovadores de financiamiento</t>
+          <t>Inicio de Certificaciones</t>
         </is>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>Esquemas innovadores de financiamiento</t>
+          <t>Inicio de Certificaciones</t>
         </is>
       </c>
       <c r="G72" s="0" t="inlineStr">
         <is>
-          <t>Planificar las obras públicas relevantes de la actual administración a través de la creación de esquemas innovadores de financiamiento</t>
+          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
         </is>
       </c>
       <c r="H72" s="0" t="inlineStr">
         <is>
-          <t>Modelo Financiero Plurianual</t>
+          <t>Firma electrónica avanzada</t>
         </is>
       </c>
       <c r="I72" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J72" s="0" t="inlineStr">
@@ -8528,34 +8563,34 @@
         </is>
       </c>
       <c r="C73" s="0">
-        <v>5520</v>
+        <v>5508</v>
       </c>
       <c r="D73" s="0">
         <v>2022</v>
       </c>
       <c r="E73" s="0" t="inlineStr">
         <is>
-          <t>Planificar acciones</t>
+          <t>Trámites en línea a través de la firma electrónica</t>
         </is>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>Planificar acciones</t>
+          <t>Trámites en línea a través de la firma electrónica</t>
         </is>
       </c>
       <c r="G73" s="0" t="inlineStr">
         <is>
-          <t>Planificar las obras públicas relevantes de la actual administración a través de la creación de esquemas innovadores de financiamiento</t>
+          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
         </is>
       </c>
       <c r="H73" s="0" t="inlineStr">
         <is>
-          <t>Modelo Financiero Plurianual</t>
+          <t>Firma electrónica avanzada</t>
         </is>
       </c>
       <c r="I73" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J73" s="0" t="inlineStr">
@@ -8571,9 +8606,14 @@
       <c r="L73" s="0">
         <v>0</v>
       </c>
+      <c r="M73" s="0" t="inlineStr">
+        <is>
+          <t>SOLUCION INTEGRAL DE DOCUMENTOS ELECTRÓNICOS MEDIANTE FIRMA ELECTRÓNICA AVANZADA PARA EL ESTADO DE QUERÉTARO</t>
+        </is>
+      </c>
       <c r="N73" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>34800000.00</t>
         </is>
       </c>
       <c r="O73" s="0" t="inlineStr">
@@ -8645,34 +8685,34 @@
         </is>
       </c>
       <c r="C74" s="0">
-        <v>5521</v>
+        <v>5510</v>
       </c>
       <c r="D74" s="0">
         <v>2022</v>
       </c>
       <c r="E74" s="0" t="inlineStr">
         <is>
-          <t>Proceso de reformas</t>
+          <t>Catastro web</t>
         </is>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>Proceso de reformas</t>
+          <t>Catastro web</t>
         </is>
       </c>
       <c r="G74" s="0" t="inlineStr">
         <is>
-          <t>Planificar las obras públicas relevantes de la actual administración a través de la creación de esquemas innovadores de financiamiento</t>
+          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
         </is>
       </c>
       <c r="H74" s="0" t="inlineStr">
         <is>
-          <t>Modelo Financiero Plurianual</t>
+          <t>Catastro digital</t>
         </is>
       </c>
       <c r="I74" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J74" s="0" t="inlineStr">
@@ -8686,11 +8726,16 @@
         </is>
       </c>
       <c r="L74" s="0">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M74" s="0" t="inlineStr">
+        <is>
+          <t>DIGITALIZACIÓN DE ARCHIVO - DIRECCIÓN DE CATASTRO - SECRETARÍA DE FINANZAS</t>
+        </is>
       </c>
       <c r="N74" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7093400.00</t>
         </is>
       </c>
       <c r="O74" s="0" t="inlineStr">
@@ -8762,34 +8807,34 @@
         </is>
       </c>
       <c r="C75" s="0">
-        <v>5522</v>
+        <v>5511</v>
       </c>
       <c r="D75" s="0">
         <v>2022</v>
       </c>
       <c r="E75" s="0" t="inlineStr">
         <is>
-          <t>Balance Presupuestario</t>
+          <t>Vuelo fotogramétrico</t>
         </is>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>Balance Presupuestario</t>
+          <t>Vuelo fotogramétrico</t>
         </is>
       </c>
       <c r="G75" s="0" t="inlineStr">
         <is>
-          <t>Garantizar el Balance Presupuestario </t>
+          <t>Ser un Querétaro sin tramites y un Gobierno de servicios al ciudadano </t>
         </is>
       </c>
       <c r="H75" s="0" t="inlineStr">
         <is>
-          <t>Eficiencia y manejo de recursos públicos</t>
+          <t>Catastro digital</t>
         </is>
       </c>
       <c r="I75" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J75" s="0" t="inlineStr">
@@ -8805,14 +8850,19 @@
       <c r="L75" s="0">
         <v>0</v>
       </c>
+      <c r="M75" s="0" t="inlineStr">
+        <is>
+          <t>SERVICIO PARA LA DETECCIÓN, SEGUIMIENTO, GEOLOCALIZACIÓN DE LOS DOMICILIOS FISCALES DE LOS CONTRIBUYENTES PARA LA REGULARIZACIÓN Y FORTALECIMIENTO DE LA RECAUDACIÓN DE CONTRIBUCIONES MEDIANTE EL USO DE UNA HERRAMIENTA TECNOLÓGICA, PARA EL DISEÑO DE UN MARCO GEOGRÁFICO FISCAL</t>
+        </is>
+      </c>
       <c r="N75" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>21532500.00</t>
         </is>
       </c>
       <c r="O75" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15660000</t>
         </is>
       </c>
       <c r="P75" s="0" t="inlineStr">
@@ -8879,34 +8929,34 @@
         </is>
       </c>
       <c r="C76" s="0">
-        <v>5523</v>
+        <v>5513</v>
       </c>
       <c r="D76" s="0">
         <v>2022</v>
       </c>
       <c r="E76" s="0" t="inlineStr">
         <is>
-          <t>Efectividad en cumplimiento de obligaciones fiscales</t>
+          <t>Fortalecimiento de ejercicio rector de las TIC's</t>
         </is>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>Efectividad en cumplimiento de obligaciones fiscales</t>
+          <t>Fortalecimiento de ejercicio rector de las TIC's</t>
         </is>
       </c>
       <c r="G76" s="0" t="inlineStr">
         <is>
-          <t>Garantizar el Balance Presupuestario </t>
+          <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
         </is>
       </c>
       <c r="H76" s="0" t="inlineStr">
         <is>
-          <t>Eficiencia y manejo de recursos públicos</t>
+          <t>Plan Querétaro Digital</t>
         </is>
       </c>
       <c r="I76" s="0" t="inlineStr">
         <is>
-          <t>65. Mantener un balance presupuestario sostenible.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J76" s="0" t="inlineStr">
@@ -8920,7 +8970,7 @@
         </is>
       </c>
       <c r="L76" s="0">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N76" s="0" t="inlineStr">
         <is>
@@ -8996,29 +9046,29 @@
         </is>
       </c>
       <c r="C77" s="0">
-        <v>5524</v>
+        <v>5514</v>
       </c>
       <c r="D77" s="0">
         <v>2022</v>
       </c>
       <c r="E77" s="0" t="inlineStr">
         <is>
-          <t>Automatización procesos bancarios, reporteo de pagos, rendimientos y comisiones</t>
+          <t>Eficiencia de procesos administrativos, financieros y contables</t>
         </is>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>Automatización procesos bancarios, reporteo de pagos, rendimientos y comisiones</t>
+          <t>Eficiencia de procesos administrativos, financieros y contables</t>
         </is>
       </c>
       <c r="G77" s="0" t="inlineStr">
         <is>
-          <t>Garantizar el Balance Presupuestario </t>
+          <t>Contar con un sistema oportuno, eficiente y tecnológico que permita realizar procesos administrativos, financieros y contables  en apego a la normatividad aplicable</t>
         </is>
       </c>
       <c r="H77" s="0" t="inlineStr">
         <is>
-          <t>Eficiencia y manejo de recursos públicos</t>
+          <t>Sistema Financiero</t>
         </is>
       </c>
       <c r="I77" s="0" t="inlineStr">
@@ -9113,29 +9163,29 @@
         </is>
       </c>
       <c r="C78" s="0">
-        <v>5525</v>
+        <v>5515</v>
       </c>
       <c r="D78" s="0">
         <v>2022</v>
       </c>
       <c r="E78" s="0" t="inlineStr">
         <is>
-          <t>Priorización del Gasto</t>
+          <t>Planeación para la implementación del nuevo sistema</t>
         </is>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>Priorización del Gasto</t>
+          <t>Planeación para la implementación del nuevo sistema</t>
         </is>
       </c>
       <c r="G78" s="0" t="inlineStr">
         <is>
-          <t>Garantizar el Balance Presupuestario </t>
+          <t>Contar con un sistema oportuno, eficiente y tecnológico que permita realizar procesos administrativos, financieros y contables  en apego a la normatividad aplicable</t>
         </is>
       </c>
       <c r="H78" s="0" t="inlineStr">
         <is>
-          <t>Eficiencia y manejo de recursos públicos</t>
+          <t>Sistema Financiero</t>
         </is>
       </c>
       <c r="I78" s="0" t="inlineStr">
@@ -9230,29 +9280,29 @@
         </is>
       </c>
       <c r="C79" s="0">
-        <v>5526</v>
+        <v>5516</v>
       </c>
       <c r="D79" s="0">
         <v>2022</v>
       </c>
       <c r="E79" s="0" t="inlineStr">
         <is>
-          <t>Proyectos para obras y acciones con financiamiento de recursos estatales</t>
+          <t>Implementación del sistema</t>
         </is>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>Proyectos para obras y acciones con financiamiento de recursos estatales</t>
+          <t>Implementación del sistema</t>
         </is>
       </c>
       <c r="G79" s="0" t="inlineStr">
         <is>
-          <t>Garantizar el Balance Presupuestario </t>
+          <t>Contar con un sistema oportuno, eficiente y tecnológico que permita realizar procesos administrativos, financieros y contables  en apego a la normatividad aplicable</t>
         </is>
       </c>
       <c r="H79" s="0" t="inlineStr">
         <is>
-          <t>Eficiencia y manejo de recursos públicos</t>
+          <t>Sistema Financiero</t>
         </is>
       </c>
       <c r="I79" s="0" t="inlineStr">
@@ -9347,29 +9397,29 @@
         </is>
       </c>
       <c r="C80" s="0">
-        <v>5527</v>
+        <v>5517</v>
       </c>
       <c r="D80" s="0">
         <v>2022</v>
       </c>
       <c r="E80" s="0" t="inlineStr">
         <is>
-          <t>Apertura de chequeras, venta de inmuebles, activos en general, créditos a corto plazo</t>
+          <t>Arranque del Sistema</t>
         </is>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>Apertura de chequeras, venta de inmuebles, activos en general, créditos a corto plazo</t>
+          <t>Arranque del Sistema</t>
         </is>
       </c>
       <c r="G80" s="0" t="inlineStr">
         <is>
-          <t>Optimizar la generación de recursos propios estatales </t>
+          <t>Contar con un sistema oportuno, eficiente y tecnológico que permita realizar procesos administrativos, financieros y contables  en apego a la normatividad aplicable</t>
         </is>
       </c>
       <c r="H80" s="0" t="inlineStr">
         <is>
-          <t>Subasta pública electrónica</t>
+          <t>Sistema Financiero</t>
         </is>
       </c>
       <c r="I80" s="0" t="inlineStr">
@@ -9464,29 +9514,29 @@
         </is>
       </c>
       <c r="C81" s="0">
-        <v>5528</v>
+        <v>5518</v>
       </c>
       <c r="D81" s="0">
         <v>2022</v>
       </c>
       <c r="E81" s="0" t="inlineStr">
         <is>
-          <t>Mejorar las condiciones financieras</t>
+          <t>Elaboración y Aprobación de la Ley Estatal de Disciplina</t>
         </is>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>Mejorar las condiciones financieras</t>
+          <t>Elaboración y Aprobación de la Ley Estatal de Disciplina</t>
         </is>
       </c>
       <c r="G81" s="0" t="inlineStr">
         <is>
-          <t>Optimizar la generación de recursos propios estatales </t>
+          <t>Eficientar los recursos financieros del sector central, organismos autónomos, entidades paraestatales y otras figuras que reciben recurso estatal.  </t>
         </is>
       </c>
       <c r="H81" s="0" t="inlineStr">
         <is>
-          <t>Subasta pública electrónica</t>
+          <t> Disciplina Financiera Estatal</t>
         </is>
       </c>
       <c r="I81" s="0" t="inlineStr">
@@ -9581,29 +9631,29 @@
         </is>
       </c>
       <c r="C82" s="0">
-        <v>5529</v>
+        <v>5519</v>
       </c>
       <c r="D82" s="0">
         <v>2022</v>
       </c>
       <c r="E82" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>Esquemas innovadores de financiamiento</t>
         </is>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>Esquemas innovadores de financiamiento</t>
         </is>
       </c>
       <c r="G82" s="0" t="inlineStr">
         <is>
-          <t>Optimizar la generación de recursos propios estatales </t>
+          <t>Planificar las obras públicas relevantes de la actual administración a través de la creación de esquemas innovadores de financiamiento</t>
         </is>
       </c>
       <c r="H82" s="0" t="inlineStr">
         <is>
-          <t>Subasta pública electrónica</t>
+          <t>Modelo Financiero Plurianual</t>
         </is>
       </c>
       <c r="I82" s="0" t="inlineStr">
@@ -9698,29 +9748,29 @@
         </is>
       </c>
       <c r="C83" s="0">
-        <v>5530</v>
+        <v>5520</v>
       </c>
       <c r="D83" s="0">
         <v>2022</v>
       </c>
       <c r="E83" s="0" t="inlineStr">
         <is>
-          <t>Portal web público</t>
+          <t>Planificar acciones</t>
         </is>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>Portal web público</t>
+          <t>Planificar acciones</t>
         </is>
       </c>
       <c r="G83" s="0" t="inlineStr">
         <is>
-          <t>Optimizar la generación de recursos propios estatales </t>
+          <t>Planificar las obras públicas relevantes de la actual administración a través de la creación de esquemas innovadores de financiamiento</t>
         </is>
       </c>
       <c r="H83" s="0" t="inlineStr">
         <is>
-          <t>Subasta pública electrónica</t>
+          <t>Modelo Financiero Plurianual</t>
         </is>
       </c>
       <c r="I83" s="0" t="inlineStr">
@@ -9815,29 +9865,29 @@
         </is>
       </c>
       <c r="C84" s="0">
-        <v>5531</v>
+        <v>5521</v>
       </c>
       <c r="D84" s="0">
         <v>2022</v>
       </c>
       <c r="E84" s="0" t="inlineStr">
         <is>
-          <t>Centralizar la estrategia de recaudación</t>
+          <t>Proceso de reformas</t>
         </is>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>Centralizar la estrategia de recaudación</t>
+          <t>Proceso de reformas</t>
         </is>
       </c>
       <c r="G84" s="0" t="inlineStr">
         <is>
-          <t>Brindar atención eficaz al contribuyente, asesoría personalizada y agilidad en trámites</t>
+          <t>Planificar las obras públicas relevantes de la actual administración a través de la creación de esquemas innovadores de financiamiento</t>
         </is>
       </c>
       <c r="H84" s="0" t="inlineStr">
         <is>
-          <t>Modelo Tributario Estatal</t>
+          <t>Modelo Financiero Plurianual</t>
         </is>
       </c>
       <c r="I84" s="0" t="inlineStr">
@@ -9856,7 +9906,7 @@
         </is>
       </c>
       <c r="L84" s="0">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N84" s="0" t="inlineStr">
         <is>
@@ -9932,29 +9982,29 @@
         </is>
       </c>
       <c r="C85" s="0">
-        <v>5533</v>
+        <v>5522</v>
       </c>
       <c r="D85" s="0">
         <v>2022</v>
       </c>
       <c r="E85" s="0" t="inlineStr">
         <is>
-          <t>Reformas Fiscales</t>
+          <t>Balance Presupuestario</t>
         </is>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>Reformas Fiscales</t>
+          <t>Balance Presupuestario</t>
         </is>
       </c>
       <c r="G85" s="0" t="inlineStr">
         <is>
-          <t>Manejo eficiente de los recursos propios</t>
+          <t>Garantizar el Balance Presupuestario </t>
         </is>
       </c>
       <c r="H85" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Eficiencia y manejo de recursos públicos</t>
         </is>
       </c>
       <c r="I85" s="0" t="inlineStr">
@@ -9973,7 +10023,7 @@
         </is>
       </c>
       <c r="L85" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N85" s="0" t="inlineStr">
         <is>
@@ -10049,29 +10099,29 @@
         </is>
       </c>
       <c r="C86" s="0">
-        <v>5534</v>
+        <v>5523</v>
       </c>
       <c r="D86" s="0">
         <v>2022</v>
       </c>
       <c r="E86" s="0" t="inlineStr">
         <is>
-          <t>Digitalización de trámites y procesos de recaudación para la ciudadanía</t>
+          <t>Efectividad en cumplimiento de obligaciones fiscales</t>
         </is>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>Digitalización de trámites y procesos de recaudación para la ciudadanía</t>
+          <t>Efectividad en cumplimiento de obligaciones fiscales</t>
         </is>
       </c>
       <c r="G86" s="0" t="inlineStr">
         <is>
-          <t>Manejo eficiente de los recursos propios</t>
+          <t>Garantizar el Balance Presupuestario </t>
         </is>
       </c>
       <c r="H86" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Eficiencia y manejo de recursos públicos</t>
         </is>
       </c>
       <c r="I86" s="0" t="inlineStr">
@@ -10090,16 +10140,16 @@
         </is>
       </c>
       <c r="L86" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N86" s="0" t="inlineStr">
         <is>
-          <t>18000000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O86" s="0" t="inlineStr">
         <is>
-          <t>13373598.47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P86" s="0" t="inlineStr">
@@ -10166,29 +10216,29 @@
         </is>
       </c>
       <c r="C87" s="0">
-        <v>5535</v>
+        <v>5524</v>
       </c>
       <c r="D87" s="0">
         <v>2022</v>
       </c>
       <c r="E87" s="0" t="inlineStr">
         <is>
-          <t>Proceso de Fiscalización (Ingresos Coordinados)</t>
+          <t>Automatización procesos bancarios, reporteo de pagos, rendimientos y comisiones</t>
         </is>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>Proceso de Fiscalización (Ingresos Coordinados)</t>
+          <t>Automatización procesos bancarios, reporteo de pagos, rendimientos y comisiones</t>
         </is>
       </c>
       <c r="G87" s="0" t="inlineStr">
         <is>
-          <t>Manejo eficiente de los recursos propios</t>
+          <t>Garantizar el Balance Presupuestario </t>
         </is>
       </c>
       <c r="H87" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Eficiencia y manejo de recursos públicos</t>
         </is>
       </c>
       <c r="I87" s="0" t="inlineStr">
@@ -10207,7 +10257,7 @@
         </is>
       </c>
       <c r="L87" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N87" s="0" t="inlineStr">
         <is>
@@ -10283,29 +10333,29 @@
         </is>
       </c>
       <c r="C88" s="0">
-        <v>5536</v>
+        <v>5525</v>
       </c>
       <c r="D88" s="0">
         <v>2022</v>
       </c>
       <c r="E88" s="0" t="inlineStr">
         <is>
-          <t>Procuraduría digital</t>
+          <t>Priorización del Gasto</t>
         </is>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>Procuraduría digital</t>
+          <t>Priorización del Gasto</t>
         </is>
       </c>
       <c r="G88" s="0" t="inlineStr">
         <is>
-          <t>Manejo eficiente de los recursos propios</t>
+          <t>Garantizar el Balance Presupuestario </t>
         </is>
       </c>
       <c r="H88" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Eficiencia y manejo de recursos públicos</t>
         </is>
       </c>
       <c r="I88" s="0" t="inlineStr">
@@ -10324,7 +10374,7 @@
         </is>
       </c>
       <c r="L88" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N88" s="0" t="inlineStr">
         <is>
@@ -10400,29 +10450,29 @@
         </is>
       </c>
       <c r="C89" s="0">
-        <v>5537</v>
+        <v>5526</v>
       </c>
       <c r="D89" s="0">
         <v>2022</v>
       </c>
       <c r="E89" s="0" t="inlineStr">
         <is>
-          <t>Programa nuevas placas</t>
+          <t>Proyectos para obras y acciones con financiamiento de recursos estatales</t>
         </is>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>Programa nuevas placas</t>
+          <t>Proyectos para obras y acciones con financiamiento de recursos estatales</t>
         </is>
       </c>
       <c r="G89" s="0" t="inlineStr">
         <is>
-          <t>Manejo eficiente de los recursos propios</t>
+          <t>Garantizar el Balance Presupuestario </t>
         </is>
       </c>
       <c r="H89" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Eficiencia y manejo de recursos públicos</t>
         </is>
       </c>
       <c r="I89" s="0" t="inlineStr">
@@ -10441,16 +10491,16 @@
         </is>
       </c>
       <c r="L89" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="0" t="inlineStr">
         <is>
-          <t>243569693.84</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O89" s="0" t="inlineStr">
         <is>
-          <t>193208676.65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P89" s="0" t="inlineStr">
@@ -10517,29 +10567,29 @@
         </is>
       </c>
       <c r="C90" s="0">
-        <v>5538</v>
+        <v>5528</v>
       </c>
       <c r="D90" s="0">
         <v>2022</v>
       </c>
       <c r="E90" s="0" t="inlineStr">
         <is>
-          <t>Programa de regularización de tenencia</t>
+          <t>Mejorar las condiciones financieras</t>
         </is>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>Programa de regularización de tenencia</t>
+          <t>Mejorar las condiciones financieras</t>
         </is>
       </c>
       <c r="G90" s="0" t="inlineStr">
         <is>
-          <t>Manejo eficiente de los recursos propios</t>
+          <t>Optimizar la generación de recursos propios estatales </t>
         </is>
       </c>
       <c r="H90" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Subasta pública electrónica</t>
         </is>
       </c>
       <c r="I90" s="0" t="inlineStr">
@@ -10558,7 +10608,7 @@
         </is>
       </c>
       <c r="L90" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N90" s="0" t="inlineStr">
         <is>
@@ -10634,29 +10684,29 @@
         </is>
       </c>
       <c r="C91" s="0">
-        <v>5540</v>
+        <v>5529</v>
       </c>
       <c r="D91" s="0">
         <v>2022</v>
       </c>
       <c r="E91" s="0" t="inlineStr">
         <is>
-          <t>Proyecto integral de captación de ingresos municipales</t>
+          <t>Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>Proyecto integral de captación de ingresos municipales</t>
+          <t>Aprovechar los recursos propios</t>
         </is>
       </c>
       <c r="G91" s="0" t="inlineStr">
         <is>
-          <t>Manejo eficiente de los recursos propios</t>
+          <t>Optimizar la generación de recursos propios estatales </t>
         </is>
       </c>
       <c r="H91" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Subasta pública electrónica</t>
         </is>
       </c>
       <c r="I91" s="0" t="inlineStr">
@@ -10675,7 +10725,7 @@
         </is>
       </c>
       <c r="L91" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="0" t="inlineStr">
         <is>
@@ -10751,29 +10801,29 @@
         </is>
       </c>
       <c r="C92" s="0">
-        <v>5541</v>
+        <v>5530</v>
       </c>
       <c r="D92" s="0">
         <v>2022</v>
       </c>
       <c r="E92" s="0" t="inlineStr">
         <is>
-          <t>Gestión de canales de recaudación</t>
+          <t>Portal web público</t>
         </is>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>Gestión de canales de recaudación</t>
+          <t>Portal web público</t>
         </is>
       </c>
       <c r="G92" s="0" t="inlineStr">
         <is>
-          <t>Manejo eficiente de los recursos propios</t>
+          <t>Optimizar la generación de recursos propios estatales </t>
         </is>
       </c>
       <c r="H92" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Subasta pública electrónica</t>
         </is>
       </c>
       <c r="I92" s="0" t="inlineStr">
@@ -10792,7 +10842,7 @@
         </is>
       </c>
       <c r="L92" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N92" s="0" t="inlineStr">
         <is>
@@ -10868,29 +10918,29 @@
         </is>
       </c>
       <c r="C93" s="0">
-        <v>5542</v>
+        <v>5531</v>
       </c>
       <c r="D93" s="0">
         <v>2022</v>
       </c>
       <c r="E93" s="0" t="inlineStr">
         <is>
-          <t>Incentivos Fiscales</t>
+          <t>Centralizar la estrategia de recaudación</t>
         </is>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>Incentivos Fiscales</t>
+          <t>Centralizar la estrategia de recaudación</t>
         </is>
       </c>
       <c r="G93" s="0" t="inlineStr">
         <is>
-          <t>Manejo eficiente de los recursos propios</t>
+          <t>Brindar atención eficaz al contribuyente, asesoría personalizada y agilidad en trámites</t>
         </is>
       </c>
       <c r="H93" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Modelo Tributario Estatal</t>
         </is>
       </c>
       <c r="I93" s="0" t="inlineStr">
@@ -10909,7 +10959,7 @@
         </is>
       </c>
       <c r="L93" s="0">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N93" s="0" t="inlineStr">
         <is>
@@ -10985,34 +11035,34 @@
         </is>
       </c>
       <c r="C94" s="0">
-        <v>5543</v>
+        <v>5533</v>
       </c>
       <c r="D94" s="0">
         <v>2022</v>
       </c>
       <c r="E94" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de procesos y procedimientos </t>
+          <t>Reformas Fiscales</t>
         </is>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de procesos y procedimientos </t>
+          <t>Reformas Fiscales</t>
         </is>
       </c>
       <c r="G94" s="0" t="inlineStr">
         <is>
-          <t>Realizar una evaluación del desempeño que mida el avance y los resultados de las actividades y estrategias que den cumplimiento al PED 2021-2027 durante el primer año de administración  </t>
+          <t>Manejo eficiente de los recursos propios</t>
         </is>
       </c>
       <c r="H94" s="0" t="inlineStr">
         <is>
-          <t>Evaluación del Desempeño eficaz</t>
+          <t>Fortalecimiento de los ingresos propios</t>
         </is>
       </c>
       <c r="I94" s="0" t="inlineStr">
         <is>
-          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J94" s="0" t="inlineStr">
@@ -11102,34 +11152,34 @@
         </is>
       </c>
       <c r="C95" s="0">
-        <v>5544</v>
+        <v>5534</v>
       </c>
       <c r="D95" s="0">
         <v>2022</v>
       </c>
       <c r="E95" s="0" t="inlineStr">
         <is>
-          <t>Programa Anual de Capacitación </t>
+          <t>Digitalización de trámites y procesos de recaudación para la ciudadanía</t>
         </is>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>Programa Anual de Capacitación </t>
+          <t>Digitalización de trámites y procesos de recaudación para la ciudadanía</t>
         </is>
       </c>
       <c r="G95" s="0" t="inlineStr">
         <is>
-          <t>Realizar una evaluación del desempeño que mida el avance y los resultados de las actividades y estrategias que den cumplimiento al PED 2021-2027 durante el primer año de administración  </t>
+          <t>Manejo eficiente de los recursos propios</t>
         </is>
       </c>
       <c r="H95" s="0" t="inlineStr">
         <is>
-          <t>Evaluación del Desempeño eficaz</t>
+          <t>Fortalecimiento de los ingresos propios</t>
         </is>
       </c>
       <c r="I95" s="0" t="inlineStr">
         <is>
-          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J95" s="0" t="inlineStr">
@@ -11145,14 +11195,19 @@
       <c r="L95" s="0">
         <v>100</v>
       </c>
+      <c r="M95" s="0" t="inlineStr">
+        <is>
+          <t>PROGRAMA TU PAGO VALE 2022 QUERÉTARO AVANZA SEGURO</t>
+        </is>
+      </c>
       <c r="N95" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>18000000.00</t>
         </is>
       </c>
       <c r="O95" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13373598.47</t>
         </is>
       </c>
       <c r="P95" s="0" t="inlineStr">
@@ -11219,34 +11274,34 @@
         </is>
       </c>
       <c r="C96" s="0">
-        <v>5545</v>
+        <v>5535</v>
       </c>
       <c r="D96" s="0">
         <v>2022</v>
       </c>
       <c r="E96" s="0" t="inlineStr">
         <is>
-          <t>Protocolo de Mejora Interna</t>
+          <t>Proceso de Fiscalización (Ingresos Coordinados)</t>
         </is>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>Protocolo de Mejora Interna</t>
+          <t>Proceso de Fiscalización (Ingresos Coordinados)</t>
         </is>
       </c>
       <c r="G96" s="0" t="inlineStr">
         <is>
-          <t>Realizar una evaluación del desempeño que mida el avance y los resultados de las actividades y estrategias que den cumplimiento al PED 2021-2027 durante el primer año de administración  </t>
+          <t>Manejo eficiente de los recursos propios</t>
         </is>
       </c>
       <c r="H96" s="0" t="inlineStr">
         <is>
-          <t>Evaluación del Desempeño eficaz</t>
+          <t>Fortalecimiento de los ingresos propios</t>
         </is>
       </c>
       <c r="I96" s="0" t="inlineStr">
         <is>
-          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J96" s="0" t="inlineStr">
@@ -11260,7 +11315,7 @@
         </is>
       </c>
       <c r="L96" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N96" s="0" t="inlineStr">
         <is>
@@ -11336,34 +11391,34 @@
         </is>
       </c>
       <c r="C97" s="0">
-        <v>6068</v>
+        <v>5536</v>
       </c>
       <c r="D97" s="0">
         <v>2022</v>
       </c>
       <c r="E97" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web </t>
+          <t>Procuraduría digital</t>
         </is>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>Reestructura de página web </t>
+          <t>Procuraduría digital</t>
         </is>
       </c>
       <c r="G97" s="0" t="inlineStr">
         <is>
-          <t>Transitar a una actualización catastral que permita eficientar los procesos y tramites mediante medios digitales.</t>
+          <t>Manejo eficiente de los recursos propios</t>
         </is>
       </c>
       <c r="H97" s="0" t="inlineStr">
         <is>
-          <t>Catastro digital</t>
+          <t>Fortalecimiento de los ingresos propios</t>
         </is>
       </c>
       <c r="I97" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J97" s="0" t="inlineStr">
@@ -11453,29 +11508,29 @@
         </is>
       </c>
       <c r="C98" s="0">
-        <v>6069</v>
+        <v>5537</v>
       </c>
       <c r="D98" s="0">
         <v>2022</v>
       </c>
       <c r="E98" s="0" t="inlineStr">
         <is>
-          <t>Fiscalización digital</t>
+          <t>Programa nuevas placas</t>
         </is>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>Fiscalización digital</t>
+          <t>Programa nuevas placas</t>
         </is>
       </c>
       <c r="G98" s="0" t="inlineStr">
         <is>
-          <t>Brindar atención eficaz al contribuyente, asesoría personalizada y agilidad en trámites</t>
+          <t>Manejo eficiente de los recursos propios</t>
         </is>
       </c>
       <c r="H98" s="0" t="inlineStr">
         <is>
-          <t>Modelo tributario estatal</t>
+          <t>Fortalecimiento de los ingresos propios</t>
         </is>
       </c>
       <c r="I98" s="0" t="inlineStr">
@@ -11494,16 +11549,21 @@
         </is>
       </c>
       <c r="L98" s="0">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M98" s="0" t="inlineStr">
+        <is>
+          <t>ADQUISICIÓN DE PLACAS PARA EL PROGRAMA CANJE DE PLACAS 2022 QUERÉTARO AVANZA SEGURO </t>
+        </is>
       </c>
       <c r="N98" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>243569693.84</t>
         </is>
       </c>
       <c r="O98" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>193208676.65</t>
         </is>
       </c>
       <c r="P98" s="0" t="inlineStr">
@@ -11570,34 +11630,34 @@
         </is>
       </c>
       <c r="C99" s="0">
-        <v>6070</v>
+        <v>5538</v>
       </c>
       <c r="D99" s="0">
         <v>2022</v>
       </c>
       <c r="E99" s="0" t="inlineStr">
         <is>
-          <t>Conservación del archivo en trámite y de concentración</t>
+          <t>Programa de regularización de tenencia</t>
         </is>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>Conservación del archivo en trámite y de concentración</t>
+          <t>Programa de regularización de tenencia</t>
         </is>
       </c>
       <c r="G99" s="0" t="inlineStr">
         <is>
-          <t>Contar con un archivo actualizado, eficiente y accesible, en colaboración con las diferentes unidades administrativas de la SF a través de un sistema que permita la búsqueda de información en tiempo y forma cumpliendo con la normatividad establecida.</t>
+          <t>Manejo eficiente de los recursos propios</t>
         </is>
       </c>
       <c r="H99" s="0" t="inlineStr">
         <is>
-          <t>Programa de mejoras para la organización, administración y conservación del archivo en trámite, concentración e histórico de la Secretaría de Finanzas </t>
+          <t>Fortalecimiento de los ingresos propios</t>
         </is>
       </c>
       <c r="I99" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J99" s="0" t="inlineStr">
@@ -11611,11 +11671,11 @@
         </is>
       </c>
       <c r="L99" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N99" s="0" t="inlineStr">
         <is>
-          <t>6496000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O99" s="0" t="inlineStr">
@@ -11687,34 +11747,34 @@
         </is>
       </c>
       <c r="C100" s="0">
-        <v>6072</v>
+        <v>5540</v>
       </c>
       <c r="D100" s="0">
         <v>2022</v>
       </c>
       <c r="E100" s="0" t="inlineStr">
         <is>
-          <t>Contratación del servicio integral de manejo y armado de kits de formas valoradas 2022</t>
+          <t>Proyecto integral de captación de ingresos municipales</t>
         </is>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
-          <t>Contratación del servicio integral de manejo y armado de kits de formas valoradas 2022</t>
+          <t>Proyecto integral de captación de ingresos municipales</t>
         </is>
       </c>
       <c r="G100" s="0" t="inlineStr">
         <is>
-          <t>Contratar servicios integrales para el manejo y armado de kits de formas valoradas</t>
+          <t>Manejo eficiente de los recursos propios</t>
         </is>
       </c>
       <c r="H100" s="0" t="inlineStr">
         <is>
-          <t>Contratar servicios integrales</t>
+          <t>Fortalecimiento de los ingresos propios</t>
         </is>
       </c>
       <c r="I100" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J100" s="0" t="inlineStr">
@@ -11728,11 +11788,11 @@
         </is>
       </c>
       <c r="L100" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="0" t="inlineStr">
         <is>
-          <t>1853893.44</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O100" s="0" t="inlineStr">
@@ -11804,34 +11864,34 @@
         </is>
       </c>
       <c r="C101" s="0">
-        <v>6073</v>
+        <v>5541</v>
       </c>
       <c r="D101" s="0">
         <v>2022</v>
       </c>
       <c r="E101" s="0" t="inlineStr">
         <is>
-          <t>Contratación de mensajería para formas valoradas 2022</t>
+          <t>Gestión de canales de recaudación</t>
         </is>
       </c>
       <c r="F101" s="0" t="inlineStr">
         <is>
-          <t>Contratación de mensajería para formas valoradas 2022</t>
+          <t>Gestión de canales de recaudación</t>
         </is>
       </c>
       <c r="G101" s="0" t="inlineStr">
         <is>
-          <t>Contratar mensajería para formas valoradas</t>
+          <t>Manejo eficiente de los recursos propios</t>
         </is>
       </c>
       <c r="H101" s="0" t="inlineStr">
         <is>
-          <t>Contratar mensajería</t>
+          <t>Fortalecimiento de los ingresos propios</t>
         </is>
       </c>
       <c r="I101" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J101" s="0" t="inlineStr">
@@ -11845,11 +11905,11 @@
         </is>
       </c>
       <c r="L101" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N101" s="0" t="inlineStr">
         <is>
-          <t>26484192.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O101" s="0" t="inlineStr">
@@ -11921,34 +11981,34 @@
         </is>
       </c>
       <c r="C102" s="0">
-        <v>6074</v>
+        <v>5542</v>
       </c>
       <c r="D102" s="0">
         <v>2022</v>
       </c>
       <c r="E102" s="0" t="inlineStr">
         <is>
-          <t>Contratación de Seguros de Responsabilidad Civil Vehicular 2022</t>
+          <t>Incentivos Fiscales</t>
         </is>
       </c>
       <c r="F102" s="0" t="inlineStr">
         <is>
-          <t>Contratación de Seguros de Responsabilidad Civil Vehicular 2022</t>
+          <t>Incentivos Fiscales</t>
         </is>
       </c>
       <c r="G102" s="0" t="inlineStr">
         <is>
-          <t>Contratar Seguros de Responsabilidad Civil Vehicular </t>
+          <t>Manejo eficiente de los recursos propios</t>
         </is>
       </c>
       <c r="H102" s="0" t="inlineStr">
         <is>
-          <t>Contratar Seguros de Responsabilidad Civil Vehicular </t>
+          <t>Fortalecimiento de los ingresos propios</t>
         </is>
       </c>
       <c r="I102" s="0" t="inlineStr">
         <is>
-          <t>63. Pasar del 25° a los primeros 10 lugares en el indicador de tiempo requerido para cumplir con el marco regulatorio.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J102" s="0" t="inlineStr">
@@ -11962,11 +12022,11 @@
         </is>
       </c>
       <c r="L102" s="0">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N102" s="0" t="inlineStr">
         <is>
-          <t>57000000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O102" s="0" t="inlineStr">
@@ -12034,43 +12094,43 @@
       </c>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de la Contraloría</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C103" s="0">
-        <v>5882</v>
+        <v>5543</v>
       </c>
       <c r="D103" s="0">
         <v>2022</v>
       </c>
       <c r="E103" s="0" t="inlineStr">
         <is>
-          <t>Establecer convenios de colaboración con asociaciones civiles.</t>
+          <t>Reestructura de procesos y procedimientos </t>
         </is>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
-          <t>Establecer convenio de colaboración con asociaciones civiles en materia de Transparencia, Acceso a la información y protección de datos personales, con el fin de contribuir a la administración del Sistema de Planeación Estatal y promover, así como propiciar la participación ciudadana, la integridad y transparencia de la actuación del gobierno.</t>
+          <t>Reestructura de procesos y procedimientos </t>
         </is>
       </c>
       <c r="G103" s="0" t="inlineStr">
         <is>
-          <t>Suscribir 3 convenios de colaboración con asociaciones civiles del Estado de Querétaro en materia de Transparencia, Acceso a la información y protección de datos personales.</t>
+          <t>Realizar una evaluación del desempeño que mida el avance y los resultados de las actividades y estrategias que den cumplimiento al PED 2021-2027 durante el primer año de administración  </t>
         </is>
       </c>
       <c r="H103" s="0" t="inlineStr">
         <is>
-          <t>Tener un acercamiento con miembros de la sociedad civil y con la ciudadanía para implementar mejores prácticas en materia de transparencia, acceso a la información y protección de datos personales.</t>
+          <t>Evaluación del Desempeño eficaz</t>
         </is>
       </c>
       <c r="I103" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
         </is>
       </c>
       <c r="J103" s="0" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K103" s="0" t="inlineStr">
@@ -12079,7 +12139,7 @@
         </is>
       </c>
       <c r="L103" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N103" s="0" t="inlineStr">
         <is>
@@ -12151,43 +12211,43 @@
       </c>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de la Contraloría</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C104" s="0">
-        <v>5888</v>
+        <v>5544</v>
       </c>
       <c r="D104" s="0">
         <v>2022</v>
       </c>
       <c r="E104" s="0" t="inlineStr">
         <is>
-          <t>Realizar Auditorías.</t>
+          <t>Programa Anual de Capacitación </t>
         </is>
       </c>
       <c r="F104" s="0" t="inlineStr">
         <is>
-          <t>Realizar Auditorías para revisión del correcto ejercicio de los recursos asignados a las Dependencias y Entidades del Estado de Querétaro, con el fin de Fomentar las medidas respectivas para motivar y sancionar el cumplimiento de la normatividad del actuar de los servidores públicos del Estado.</t>
+          <t>Programa Anual de Capacitación </t>
         </is>
       </c>
       <c r="G104" s="0" t="inlineStr">
         <is>
-          <t>Fomentar finanzas públicas sanas</t>
+          <t>Realizar una evaluación del desempeño que mida el avance y los resultados de las actividades y estrategias que den cumplimiento al PED 2021-2027 durante el primer año de administración  </t>
         </is>
       </c>
       <c r="H104" s="0" t="inlineStr">
         <is>
-          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+          <t>Evaluación del Desempeño eficaz</t>
         </is>
       </c>
       <c r="I104" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
         </is>
       </c>
       <c r="J104" s="0" t="inlineStr">
         <is>
-          <t>2022-01-03</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K104" s="0" t="inlineStr">
@@ -12196,7 +12256,7 @@
         </is>
       </c>
       <c r="L104" s="0">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="N104" s="0" t="inlineStr">
         <is>
@@ -12268,43 +12328,43 @@
       </c>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de la Contraloría</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C105" s="0">
-        <v>5889</v>
+        <v>5545</v>
       </c>
       <c r="D105" s="0">
         <v>2022</v>
       </c>
       <c r="E105" s="0" t="inlineStr">
         <is>
-          <t>Supervisar a Órganos Internos de Control.</t>
+          <t>Protocolo de Mejora Interna</t>
         </is>
       </c>
       <c r="F105" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de cumplimiento a las Supervisiones a Órganos Internos de Control</t>
+          <t>Protocolo de Mejora Interna</t>
         </is>
       </c>
       <c r="G105" s="0" t="inlineStr">
         <is>
-          <t>Fomentar finanzas públicas sanas</t>
+          <t>Realizar una evaluación del desempeño que mida el avance y los resultados de las actividades y estrategias que den cumplimiento al PED 2021-2027 durante el primer año de administración  </t>
         </is>
       </c>
       <c r="H105" s="0" t="inlineStr">
         <is>
-          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+          <t>Evaluación del Desempeño eficaz</t>
         </is>
       </c>
       <c r="I105" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>64. Pasar del lugar 23 a los primeros 10 en el Informe de Diagnóstico PbR SED.</t>
         </is>
       </c>
       <c r="J105" s="0" t="inlineStr">
         <is>
-          <t>2022-01-03</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K105" s="0" t="inlineStr">
@@ -12313,7 +12373,7 @@
         </is>
       </c>
       <c r="L105" s="0">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N105" s="0" t="inlineStr">
         <is>
@@ -12385,48 +12445,48 @@
       </c>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de la Contraloría</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C106" s="0">
-        <v>5892</v>
+        <v>6068</v>
       </c>
       <c r="D106" s="0">
         <v>2022</v>
       </c>
       <c r="E106" s="0" t="inlineStr">
         <is>
-          <t>Verificar el cumplimiento en la presentación de la Declaración de modificación de situación patrimonial y de intereses.</t>
+          <t>Reestructura de página web </t>
         </is>
       </c>
       <c r="F106" s="0" t="inlineStr">
         <is>
-          <t>Verificar cumplimiento del 80 por ciento de servidores públicos del Poder Ejecutivo que presentaron su declaración de modificación de situación patrimonial y de intereses en tiempo y forma.</t>
+          <t>Reestructura de página web </t>
         </is>
       </c>
       <c r="G106" s="0" t="inlineStr">
         <is>
-          <t>Ser un gobierno cercano y de alto desempeño de cara a la sociedad por medio de la verificación del cumplimiento de un mínimo del 80 por ciento de servidores públicos del Poder Ejecutivo que presentaron su declaración de modificación de situación patrimonial y de intereses en tiempo y forma.</t>
+          <t>Transitar a una actualización catastral que permita eficientar los procesos y tramites mediante medios digitales.</t>
         </is>
       </c>
       <c r="H106" s="0" t="inlineStr">
         <is>
-          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+          <t>Catastro digital</t>
         </is>
       </c>
       <c r="I106" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J106" s="0" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K106" s="0" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="L106" s="0">
@@ -12454,7 +12514,7 @@
       </c>
       <c r="R106" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S106" s="0" t="inlineStr">
@@ -12502,43 +12562,43 @@
       </c>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de la Contraloría</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C107" s="0">
-        <v>5893</v>
+        <v>6069</v>
       </c>
       <c r="D107" s="0">
         <v>2022</v>
       </c>
       <c r="E107" s="0" t="inlineStr">
         <is>
-          <t>Verificar el cumplimiento en la presentación de la Declaración de inicio y/o conclusión en tiempo y forma.</t>
+          <t>Fiscalización digital</t>
         </is>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
-          <t>Verificar el cumplimiento en la presentación de un mínimo del 60 por ciento de los servidores públicos obligados a la Declaración de inicio y/o conclusión en tiempo y forma.</t>
+          <t>Fiscalización digital</t>
         </is>
       </c>
       <c r="G107" s="0" t="inlineStr">
         <is>
-          <t>Ser un gobierno cercano y de alto desempeño de cara a la sociedad, por medio de la verificación del cumplimiento en la presentación de un mínimo del 60 por ciento de los servidores públicos obligados a la Declaración de inicio y/o conclusión en tiempo y forma.</t>
+          <t>Brindar atención eficaz al contribuyente, asesoría personalizada y agilidad en trámites</t>
         </is>
       </c>
       <c r="H107" s="0" t="inlineStr">
         <is>
-          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+          <t>Modelo tributario estatal</t>
         </is>
       </c>
       <c r="I107" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>65. Mantener un balance presupuestario sostenible.</t>
         </is>
       </c>
       <c r="J107" s="0" t="inlineStr">
         <is>
-          <t>2022-01-03</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K107" s="0" t="inlineStr">
@@ -12547,7 +12607,7 @@
         </is>
       </c>
       <c r="L107" s="0">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N107" s="0" t="inlineStr">
         <is>
@@ -12619,56 +12679,61 @@
       </c>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de la Contraloría</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C108" s="0">
-        <v>5909</v>
+        <v>6070</v>
       </c>
       <c r="D108" s="0">
         <v>2022</v>
       </c>
       <c r="E108" s="0" t="inlineStr">
         <is>
-          <t>Evaluar el seguimiento de las funciones realizadas respecto al porcentaje de Estados Financieros de las Entidades Paraestatales y Organismos Autónomos dictaminados. </t>
+          <t>Conservación del archivo en trámite y de concentración</t>
         </is>
       </c>
       <c r="F108" s="0" t="inlineStr">
         <is>
-          <t>Evaluar el seguimiento de las funciones realizadas respecto al porcentaje de Estados Financieros de las Entidades Paraestatales y Organismos Autónomos dictaminados con respecto al total de Estados Financieros.</t>
+          <t>Conservación del archivo en trámite y de concentración</t>
         </is>
       </c>
       <c r="G108" s="0" t="inlineStr">
         <is>
-          <t>Fomentar finanzas públicas sanas</t>
+          <t>Contar con un archivo actualizado, eficiente y accesible, en colaboración con las diferentes unidades administrativas de la SF a través de un sistema que permita la búsqueda de información en tiempo y forma cumpliendo con la normatividad establecida.</t>
         </is>
       </c>
       <c r="H108" s="0" t="inlineStr">
         <is>
-          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+          <t>Programa de mejoras para la organización, administración y conservación del archivo en trámite, concentración e histórico de la Secretaría de Finanzas </t>
         </is>
       </c>
       <c r="I108" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
         </is>
       </c>
       <c r="J108" s="0" t="inlineStr">
         <is>
-          <t>2022-01-03</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K108" s="0" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="L108" s="0">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="M108" s="0" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE MEJORAS PARA LA ORGANIZACION, ADMINISTRACION Y CONSERVACION DEL ARCHIVO DE TRAMITE, CONCENTRACION E HISTORICO DE LA SECRETARIA DE FINANZAS</t>
+        </is>
       </c>
       <c r="N108" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>6496000.00</t>
         </is>
       </c>
       <c r="O108" s="0" t="inlineStr">
@@ -12736,43 +12801,43 @@
       </c>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de la Contraloría</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C109" s="0">
-        <v>5998</v>
+        <v>6072</v>
       </c>
       <c r="D109" s="0">
         <v>2022</v>
       </c>
       <c r="E109" s="0" t="inlineStr">
         <is>
-          <t>Propiciar compromisos concretos por parte del Poder Ejecutivo para promover la transparencia</t>
+          <t>Contratación del servicio integral de manejo y armado de kits de formas valoradas 2022</t>
         </is>
       </c>
       <c r="F109" s="0" t="inlineStr">
         <is>
-          <t>Propiciar compromisos concretos por parte del Poder Ejecutivo para promover la transparencia, aumentar la participación ciudadana en los asuntos públicos, combatir la corrupción y aprovechar las nuevas tecnologías para robustecer la gobernanza, que coadyuve a la administración del Sistema de Planeación Estatal y promover, así como propiciar la participación ciudadana, la integridad y transparencia de la actuación del gobierno.</t>
+          <t>Contratación del servicio integral de manejo y armado de kits de formas valoradas 2022</t>
         </is>
       </c>
       <c r="G109" s="0" t="inlineStr">
         <is>
-          <t>Cumplir con 5 compromisos del Consejo Ciudadano de Transparencia.</t>
+          <t>Contratar servicios integrales para el manejo y armado de kits de formas valoradas</t>
         </is>
       </c>
       <c r="H109" s="0" t="inlineStr">
         <is>
-          <t>Administrar el Sistema de Planeación Estatal y promover y propiciar la participación ciudadana y la integridad y transparencia de la actuación del gobierno</t>
+          <t>Contratar servicios integrales</t>
         </is>
       </c>
       <c r="I109" s="0" t="inlineStr">
         <is>
-          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
         </is>
       </c>
       <c r="J109" s="0" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K109" s="0" t="inlineStr">
@@ -12783,9 +12848,14 @@
       <c r="L109" s="0">
         <v>0</v>
       </c>
+      <c r="M109" s="0" t="inlineStr">
+        <is>
+          <t>CONTRATACIÓN SERVICIO INTEGRAL DE MANEJO Y ARMADO DE KITS DE FORMAS VALORADAS 2022</t>
+        </is>
+      </c>
       <c r="N109" s="0" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1853893.44</t>
         </is>
       </c>
       <c r="O109" s="0" t="inlineStr">
@@ -12853,33 +12923,33 @@
       </c>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de la Contraloría</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C110" s="0">
-        <v>6094</v>
+        <v>6073</v>
       </c>
       <c r="D110" s="0">
         <v>2022</v>
       </c>
       <c r="E110" s="0" t="inlineStr">
         <is>
-          <t>Realizar Auditoría a los rubros de adquisiciones, obra pública, servicios personales y almacén, llevados a cabo por la Comisión Estatal de Aguas.</t>
+          <t>Contratación de mensajería para formas valoradas 2022</t>
         </is>
       </c>
       <c r="F110" s="0" t="inlineStr">
         <is>
-          <t>Realizar Auditoría Normativa y Financiera bajo procedimientos previamente convenidos conforme a la Norma de Auditoría 11010 "Informe del Contador Público sobre el resultado de la aplicación de procedimientos convenidos" de las normas de auditoría para atestiguar, revisión y otros servicios relacionados a los recursos estatales y/o propios destinados a los rubros de adquisiciones, obra pública, servicios personales y almacén, llevados a cabo por la Comisión Estatal de Aguas, durante los periodos del 1° de enero al 31 de diciembre de 2021 y del 1° de enero al 31 de marzo del 2022, con el fin de Fomentar las medidas respectivas para motivar y sancionar el cumplimiento de la normatividad del actuar de los servidores públicos del Estado.</t>
+          <t>Contratación de mensajería para formas valoradas 2022</t>
         </is>
       </c>
       <c r="G110" s="0" t="inlineStr">
         <is>
-          <t>Fomentar finanzas públicas sanas</t>
+          <t>Contratar mensajería para formas valoradas</t>
         </is>
       </c>
       <c r="H110" s="0" t="inlineStr">
         <is>
-          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+          <t>Contratar mensajería</t>
         </is>
       </c>
       <c r="I110" s="0" t="inlineStr">
@@ -12889,25 +12959,30 @@
       </c>
       <c r="J110" s="0" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K110" s="0" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="L110" s="0">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="M110" s="0" t="inlineStr">
+        <is>
+          <t>CONTRATACIÓN DE MENSAJERÍA PARA FORMAS VALORADAS 2022</t>
+        </is>
       </c>
       <c r="N110" s="0" t="inlineStr">
         <is>
-          <t>5799275.00</t>
+          <t>26484192.00</t>
         </is>
       </c>
       <c r="O110" s="0" t="inlineStr">
         <is>
-          <t>1159855</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P110" s="0" t="inlineStr">
@@ -12970,61 +13045,66 @@
       </c>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de la Contraloría</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C111" s="0">
-        <v>6099</v>
+        <v>6074</v>
       </c>
       <c r="D111" s="0">
         <v>2022</v>
       </c>
       <c r="E111" s="0" t="inlineStr">
         <is>
-          <t>Realizar Auditoría a los rubros de adquisiciones, obra pública, servicios personales y almacén, llevados a cabo por los Servicios de Salud del Estado de Querétaro.</t>
+          <t>Contratación de Seguros de Responsabilidad Civil Vehicular 2022</t>
         </is>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
-          <t>Realizar Auditoría Normativa y Financiera bajo procedimientos previamente convenidos conforme a la Norma de Auditoría 11010 "Informe del Contador Público sobre el resultado de la aplicación de procedimientos convenidos" de las normas de auditoría para atestiguar, revisión y otros servicios relacionados a los recursos estatales y/o propios destinados a los rubros de adquisiciones, obra pública, servicios personales y almacén, llevados a cabo por los Servicios de Salud del Estado de Querétaro, durante los periodos del 1° de enero al 31 de diciembre de 2021 y del 1° de enero al 31 de marzo del 2022, con el fin de Fomentar las medidas respectivas para motivar y sancionar el cumplimiento de la normatividad del actuar de los servidores públicos del Estado.</t>
+          <t>Contratación de Seguros de Responsabilidad Civil Vehicular 2022</t>
         </is>
       </c>
       <c r="G111" s="0" t="inlineStr">
         <is>
-          <t>Fomentar finanzas públicas sanas</t>
+          <t>Contratar Seguros de Responsabilidad Civil Vehicular </t>
         </is>
       </c>
       <c r="H111" s="0" t="inlineStr">
         <is>
-          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+          <t>Contratar Seguros de Responsabilidad Civil Vehicular </t>
         </is>
       </c>
       <c r="I111" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>63. Pasar del 25° a los primeros 10 lugares en el indicador de tiempo requerido para cumplir con el marco regulatorio.</t>
         </is>
       </c>
       <c r="J111" s="0" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K111" s="0" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="L111" s="0">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="M111" s="0" t="inlineStr">
+        <is>
+          <t>Contratación de Seguros de Responsabilidad Civil Vehicular 2022</t>
+        </is>
       </c>
       <c r="N111" s="0" t="inlineStr">
         <is>
-          <t>4621237.00</t>
+          <t>57000000.00</t>
         </is>
       </c>
       <c r="O111" s="0" t="inlineStr">
         <is>
-          <t>924247.4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P111" s="0" t="inlineStr">
@@ -13087,71 +13167,71 @@
       </c>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de la Contraloría</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C112" s="0">
-        <v>6101</v>
+        <v>6424</v>
       </c>
       <c r="D112" s="0">
         <v>2022</v>
       </c>
       <c r="E112" s="0" t="inlineStr">
         <is>
-          <t>Realizar Auditoría a los procedimientos de contratación de adquisiciones y obra pública de las Dependencias y Entidades del Poder Ejecutivo del Estado de Querétaro, con un alcance de revisión de 360 procedimientos.</t>
+          <t>TEST ESZ 1</t>
         </is>
       </c>
       <c r="F112" s="0" t="inlineStr">
         <is>
-          <t>Realizar Auditoría de cumplimiento de revisiones a los procedimientos de contratación de adquisiciones y obra pública de las Dependencias y Entidades del Poder Ejecutivo del Estado de Querétaro, con un alcance de revisión de 360 procedimientos, en los cuales se debe comprobar que se han llevado a cabo bajo los principios de legalidad, eficiencia, eficacia, economía, transparencia, honradez y equidad, para satisfacer los objetivos a que estén destinados, con apego de la normatividad aplicable en la materia, durante los periodos del 1° de octubre de 2021, al 31 de diciembre de 2021 y del 1° de enero del 2022, al 30 de junio del 2022, con el fin de fomentar las medidas respectivas para motivar y sancionar el cumplimiento de la normatividad del actuar de los servidores públicos del Estado.</t>
+          <t>TEST ESZ</t>
         </is>
       </c>
       <c r="G112" s="0" t="inlineStr">
         <is>
-          <t>Fomentar finanzas públicas sanas</t>
+          <t>TEST ESZ</t>
         </is>
       </c>
       <c r="H112" s="0" t="inlineStr">
         <is>
-          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+          <t>TEST ESZ</t>
         </is>
       </c>
       <c r="I112" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J112" s="0" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="K112" s="0" t="inlineStr">
         <is>
-          <t>2022-12-10</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="L112" s="0">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="N112" s="0" t="inlineStr">
         <is>
-          <t>16704000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O112" s="0" t="inlineStr">
         <is>
-          <t>3712000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P112" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="Q112" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R112" s="0" t="inlineStr">
@@ -13204,33 +13284,33 @@
       </c>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t>Unidad de Comunicación de Social</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C113" s="0">
-        <v>4961</v>
+        <v>6425</v>
       </c>
       <c r="D113" s="0">
         <v>2022</v>
       </c>
       <c r="E113" s="0" t="inlineStr">
         <is>
-          <t>Ejecutar el Programa Anual de Comunicación Social 2022</t>
+          <t>Actividad padre 1 SF</t>
         </is>
       </c>
       <c r="F113" s="0" t="inlineStr">
         <is>
-          <t>Ejecutar el Programa Anual de Comunicación Social 2022</t>
+          <t>Actividad padre 1 SF</t>
         </is>
       </c>
       <c r="G113" s="0" t="inlineStr">
         <is>
-          <t>Incrementar la percepción positiva del desempeño Gubernamental del Poder Ejecutivo del Estado de Querétaro</t>
+          <t>Actividad padre 1 SF</t>
         </is>
       </c>
       <c r="H113" s="0" t="inlineStr">
         <is>
-          <t>Desarrollar y Difundir de manera clara y oportuna contenidos relacionados con la cohesión y bienestar social, eficiencia gubernamental, fortalecimiento a la seguridad, infraestructura en salud, educación, deporte, cultura, responsabilidad social, acceso a bienes y servicios y desarrollo Económico.</t>
+          <t>Actividad padre 1 SF</t>
         </is>
       </c>
       <c r="I113" s="0" t="inlineStr">
@@ -13321,38 +13401,38 @@
       </c>
       <c r="B114" s="0" t="inlineStr">
         <is>
-          <t>Unidad de Comunicación de Social</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="C114" s="0">
-        <v>4962</v>
+        <v>6441</v>
       </c>
       <c r="D114" s="0">
         <v>2022</v>
       </c>
       <c r="E114" s="0" t="inlineStr">
         <is>
-          <t>Adjudicar y formalizar contratos de servicios de Comunicación Social.</t>
+          <t>Actividad hija SF 2</t>
         </is>
       </c>
       <c r="F114" s="0" t="inlineStr">
         <is>
-          <t>Adjudicar y formalizar contratos de servicios de Comunicación Social.</t>
+          <t>Actividad hija SF 2</t>
         </is>
       </c>
       <c r="G114" s="0" t="inlineStr">
         <is>
-          <t>Garantizar el acceso de la información al mayor número de personas que integran el segmento de la población a la que va dirigida.</t>
+          <t>Actividad hija SF 2</t>
         </is>
       </c>
       <c r="H114" s="0" t="inlineStr">
         <is>
-          <t>Realizar selección de proveedores de Servicios de Comunicación Social de radio, televisión, Prensa y medios digitales y complementarios.</t>
+          <t>Actividad hija SF 2</t>
         </is>
       </c>
       <c r="I114" s="0" t="inlineStr">
         <is>
-          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+          <t>60. Pasar del lugar número 10 a los primeros 5 lugares en el indicador del Número de usuarios que experimentaron algún acto de corrupción en al menos uno de los trámites que realizaron.</t>
         </is>
       </c>
       <c r="J114" s="0" t="inlineStr">
@@ -13366,7 +13446,7 @@
         </is>
       </c>
       <c r="L114" s="0">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N114" s="0" t="inlineStr">
         <is>
@@ -13390,7 +13470,7 @@
       </c>
       <c r="R114" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S114" s="0" t="inlineStr">
@@ -13438,33 +13518,33 @@
       </c>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t>Unidad de Comunicación de Social</t>
+          <t>Secretaría de la Contraloría</t>
         </is>
       </c>
       <c r="C115" s="0">
-        <v>4963</v>
+        <v>5882</v>
       </c>
       <c r="D115" s="0">
         <v>2022</v>
       </c>
       <c r="E115" s="0" t="inlineStr">
         <is>
-          <t>Dar difusión a las actividades que se realizan en la administración pública estatal y presentar posicionamientos de interés general a través de la publicación de boletines en el portal de Prensa http://www.queretaro.gob.mx/prensa</t>
+          <t>Establecer convenios de colaboración con asociaciones civiles.</t>
         </is>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
-          <t>Dar difusión a las actividades que se realizan en la administración pública estatal y presentar posicionamientos de interés general a través de la publicación de boletines en el portal de Prensa http://www.queretaro.gob.mx/prensa</t>
+          <t>Establecer convenio de colaboración con asociaciones civiles en materia de Transparencia, Acceso a la información y protección de datos personales, con el fin de contribuir a la administración del Sistema de Planeación Estatal y promover, así como propiciar la participación ciudadana, la integridad y transparencia de la actuación del gobierno.</t>
         </is>
       </c>
       <c r="G115" s="0" t="inlineStr">
         <is>
-          <t>Aumentar en 5 por ciento la cantidad de Boletines publicados</t>
+          <t>Suscribir 3 convenios de colaboración con asociaciones civiles del Estado de Querétaro en materia de Transparencia, Acceso a la información y protección de datos personales.</t>
         </is>
       </c>
       <c r="H115" s="0" t="inlineStr">
         <is>
-          <t>Procesar y analizar información generando documentos informativos de carácter oficial. </t>
+          <t>Tener un acercamiento con miembros de la sociedad civil y con la ciudadanía para implementar mejores prácticas en materia de transparencia, acceso a la información y protección de datos personales.</t>
         </is>
       </c>
       <c r="I115" s="0" t="inlineStr">
@@ -13474,7 +13554,7 @@
       </c>
       <c r="J115" s="0" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="K115" s="0" t="inlineStr">
@@ -13541,6 +13621,1425 @@
         </is>
       </c>
       <c r="Y115" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Contraloría</t>
+        </is>
+      </c>
+      <c r="C116" s="0">
+        <v>5888</v>
+      </c>
+      <c r="D116" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E116" s="0" t="inlineStr">
+        <is>
+          <t>Realizar Auditorías.</t>
+        </is>
+      </c>
+      <c r="F116" s="0" t="inlineStr">
+        <is>
+          <t>Realizar Auditorías para revisión del correcto ejercicio de los recursos asignados a las Dependencias y Entidades del Estado de Querétaro, con el fin de Fomentar las medidas respectivas para motivar y sancionar el cumplimiento de la normatividad del actuar de los servidores públicos del Estado.</t>
+        </is>
+      </c>
+      <c r="G116" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar finanzas públicas sanas</t>
+        </is>
+      </c>
+      <c r="H116" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+        </is>
+      </c>
+      <c r="I116" s="0" t="inlineStr">
+        <is>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+        </is>
+      </c>
+      <c r="J116" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="K116" s="0" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="L116" s="0">
+        <v>64</v>
+      </c>
+      <c r="N116" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O116" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P116" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q116" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R116" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S116" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T116" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U116" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V116" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W116" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X116" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y116" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Contraloría</t>
+        </is>
+      </c>
+      <c r="C117" s="0">
+        <v>5889</v>
+      </c>
+      <c r="D117" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E117" s="0" t="inlineStr">
+        <is>
+          <t>Supervisar a Órganos Internos de Control.</t>
+        </is>
+      </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de cumplimiento a las Supervisiones a Órganos Internos de Control</t>
+        </is>
+      </c>
+      <c r="G117" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar finanzas públicas sanas</t>
+        </is>
+      </c>
+      <c r="H117" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+        </is>
+      </c>
+      <c r="I117" s="0" t="inlineStr">
+        <is>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+        </is>
+      </c>
+      <c r="J117" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="K117" s="0" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="L117" s="0">
+        <v>100</v>
+      </c>
+      <c r="N117" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O117" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P117" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q117" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R117" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S117" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T117" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U117" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V117" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W117" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X117" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y117" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Contraloría</t>
+        </is>
+      </c>
+      <c r="C118" s="0">
+        <v>5892</v>
+      </c>
+      <c r="D118" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E118" s="0" t="inlineStr">
+        <is>
+          <t>Verificar el cumplimiento en la presentación de la Declaración de modificación de situación patrimonial y de intereses.</t>
+        </is>
+      </c>
+      <c r="F118" s="0" t="inlineStr">
+        <is>
+          <t>Verificar cumplimiento del 80 por ciento de servidores públicos del Poder Ejecutivo que presentaron su declaración de modificación de situación patrimonial y de intereses en tiempo y forma.</t>
+        </is>
+      </c>
+      <c r="G118" s="0" t="inlineStr">
+        <is>
+          <t>Ser un gobierno cercano y de alto desempeño de cara a la sociedad por medio de la verificación del cumplimiento de un mínimo del 80 por ciento de servidores públicos del Poder Ejecutivo que presentaron su declaración de modificación de situación patrimonial y de intereses en tiempo y forma.</t>
+        </is>
+      </c>
+      <c r="H118" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+        </is>
+      </c>
+      <c r="I118" s="0" t="inlineStr">
+        <is>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+        </is>
+      </c>
+      <c r="J118" s="0" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+      <c r="K118" s="0" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="L118" s="0">
+        <v>100</v>
+      </c>
+      <c r="N118" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O118" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P118" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q118" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R118" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S118" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T118" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U118" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V118" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W118" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X118" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y118" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Contraloría</t>
+        </is>
+      </c>
+      <c r="C119" s="0">
+        <v>5893</v>
+      </c>
+      <c r="D119" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E119" s="0" t="inlineStr">
+        <is>
+          <t>Verificar el cumplimiento en la presentación de la Declaración de inicio y/o conclusión en tiempo y forma.</t>
+        </is>
+      </c>
+      <c r="F119" s="0" t="inlineStr">
+        <is>
+          <t>Verificar el cumplimiento en la presentación de un mínimo del 60 por ciento de los servidores públicos obligados a la Declaración de inicio y/o conclusión en tiempo y forma.</t>
+        </is>
+      </c>
+      <c r="G119" s="0" t="inlineStr">
+        <is>
+          <t>Ser un gobierno cercano y de alto desempeño de cara a la sociedad, por medio de la verificación del cumplimiento en la presentación de un mínimo del 60 por ciento de los servidores públicos obligados a la Declaración de inicio y/o conclusión en tiempo y forma.</t>
+        </is>
+      </c>
+      <c r="H119" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+        </is>
+      </c>
+      <c r="I119" s="0" t="inlineStr">
+        <is>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+        </is>
+      </c>
+      <c r="J119" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="K119" s="0" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="L119" s="0">
+        <v>95</v>
+      </c>
+      <c r="N119" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O119" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P119" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q119" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R119" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S119" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T119" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U119" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V119" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W119" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X119" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y119" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Contraloría</t>
+        </is>
+      </c>
+      <c r="C120" s="0">
+        <v>5909</v>
+      </c>
+      <c r="D120" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E120" s="0" t="inlineStr">
+        <is>
+          <t>Evaluar el seguimiento de las funciones realizadas respecto al porcentaje de Estados Financieros de las Entidades Paraestatales y Organismos Autónomos dictaminados. </t>
+        </is>
+      </c>
+      <c r="F120" s="0" t="inlineStr">
+        <is>
+          <t>Evaluar el seguimiento de las funciones realizadas respecto al porcentaje de Estados Financieros de las Entidades Paraestatales y Organismos Autónomos dictaminados con respecto al total de Estados Financieros.</t>
+        </is>
+      </c>
+      <c r="G120" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar finanzas públicas sanas</t>
+        </is>
+      </c>
+      <c r="H120" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+        </is>
+      </c>
+      <c r="I120" s="0" t="inlineStr">
+        <is>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+        </is>
+      </c>
+      <c r="J120" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="K120" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-31</t>
+        </is>
+      </c>
+      <c r="L120" s="0">
+        <v>95</v>
+      </c>
+      <c r="N120" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O120" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P120" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q120" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R120" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S120" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T120" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U120" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V120" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W120" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X120" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y120" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Contraloría</t>
+        </is>
+      </c>
+      <c r="C121" s="0">
+        <v>5998</v>
+      </c>
+      <c r="D121" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E121" s="0" t="inlineStr">
+        <is>
+          <t>Propiciar compromisos concretos por parte del Poder Ejecutivo para promover la transparencia</t>
+        </is>
+      </c>
+      <c r="F121" s="0" t="inlineStr">
+        <is>
+          <t>Propiciar compromisos concretos por parte del Poder Ejecutivo para promover la transparencia, aumentar la participación ciudadana en los asuntos públicos, combatir la corrupción y aprovechar las nuevas tecnologías para robustecer la gobernanza, que coadyuve a la administración del Sistema de Planeación Estatal y promover, así como propiciar la participación ciudadana, la integridad y transparencia de la actuación del gobierno.</t>
+        </is>
+      </c>
+      <c r="G121" s="0" t="inlineStr">
+        <is>
+          <t>Cumplir con 5 compromisos del Consejo Ciudadano de Transparencia.</t>
+        </is>
+      </c>
+      <c r="H121" s="0" t="inlineStr">
+        <is>
+          <t>Administrar el Sistema de Planeación Estatal y promover y propiciar la participación ciudadana y la integridad y transparencia de la actuación del gobierno</t>
+        </is>
+      </c>
+      <c r="I121" s="0" t="inlineStr">
+        <is>
+          <t>62. Entrar a los primeros 5 lugares del Índice de Gobernanza Digital.</t>
+        </is>
+      </c>
+      <c r="J121" s="0" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="K121" s="0" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="L121" s="0">
+        <v>0</v>
+      </c>
+      <c r="N121" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O121" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P121" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q121" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R121" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S121" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T121" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U121" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V121" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W121" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X121" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y121" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Contraloría</t>
+        </is>
+      </c>
+      <c r="C122" s="0">
+        <v>6094</v>
+      </c>
+      <c r="D122" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E122" s="0" t="inlineStr">
+        <is>
+          <t>Realizar Auditoría a los rubros de adquisiciones, obra pública, servicios personales y almacén, llevados a cabo por la Comisión Estatal de Aguas.</t>
+        </is>
+      </c>
+      <c r="F122" s="0" t="inlineStr">
+        <is>
+          <t>Realizar Auditoría Normativa y Financiera bajo procedimientos previamente convenidos conforme a la Norma de Auditoría 11010 "Informe del Contador Público sobre el resultado de la aplicación de procedimientos convenidos" de las normas de auditoría para atestiguar, revisión y otros servicios relacionados a los recursos estatales y/o propios destinados a los rubros de adquisiciones, obra pública, servicios personales y almacén, llevados a cabo por la Comisión Estatal de Aguas, durante los periodos del 1° de enero al 31 de diciembre de 2021 y del 1° de enero al 31 de marzo del 2022, con el fin de Fomentar las medidas respectivas para motivar y sancionar el cumplimiento de la normatividad del actuar de los servidores públicos del Estado.</t>
+        </is>
+      </c>
+      <c r="G122" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar finanzas públicas sanas</t>
+        </is>
+      </c>
+      <c r="H122" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+        </is>
+      </c>
+      <c r="I122" s="0" t="inlineStr">
+        <is>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+        </is>
+      </c>
+      <c r="J122" s="0" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="K122" s="0" t="inlineStr">
+        <is>
+          <t>2022-12-09</t>
+        </is>
+      </c>
+      <c r="L122" s="0">
+        <v>40</v>
+      </c>
+      <c r="M122" s="0" t="inlineStr">
+        <is>
+          <t>Auditoría normativa y financiera conforme a Norma de Auditoría 11010 "Informe del Contador Público sobre el Resultado de la Aplicación de Procedimientos Convenidos", de las Normas de Auditoría para Atestiguar, Revisión y Otros Servicios Relacionados, a los recursos estatales y/o propios destinados a los rubros de Adquisiciones, Obra Pública, Servicios Personales y Almacén de la Comisión Estatal de Aguas (CEA), conforme a los Términos de Referencia emitidos por la Dirección de Auditoría de la Secretaría de la Contraloría por los periodos del 01 de ene al 31 de dic 2021 y 1 de ene a 31 mzo 2022.</t>
+        </is>
+      </c>
+      <c r="N122" s="0" t="inlineStr">
+        <is>
+          <t>5799275.00</t>
+        </is>
+      </c>
+      <c r="O122" s="0" t="inlineStr">
+        <is>
+          <t>1159855</t>
+        </is>
+      </c>
+      <c r="P122" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q122" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R122" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S122" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T122" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U122" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V122" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W122" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X122" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y122" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Contraloría</t>
+        </is>
+      </c>
+      <c r="C123" s="0">
+        <v>6099</v>
+      </c>
+      <c r="D123" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E123" s="0" t="inlineStr">
+        <is>
+          <t>Realizar Auditoría a los rubros de adquisiciones, obra pública, servicios personales y almacén, llevados a cabo por los Servicios de Salud del Estado de Querétaro.</t>
+        </is>
+      </c>
+      <c r="F123" s="0" t="inlineStr">
+        <is>
+          <t>Realizar Auditoría Normativa y Financiera bajo procedimientos previamente convenidos conforme a la Norma de Auditoría 11010 "Informe del Contador Público sobre el resultado de la aplicación de procedimientos convenidos" de las normas de auditoría para atestiguar, revisión y otros servicios relacionados a los recursos estatales y/o propios destinados a los rubros de adquisiciones, obra pública, servicios personales y almacén, llevados a cabo por los Servicios de Salud del Estado de Querétaro, durante los periodos del 1° de enero al 31 de diciembre de 2021 y del 1° de enero al 31 de marzo del 2022, con el fin de Fomentar las medidas respectivas para motivar y sancionar el cumplimiento de la normatividad del actuar de los servidores públicos del Estado.</t>
+        </is>
+      </c>
+      <c r="G123" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar finanzas públicas sanas</t>
+        </is>
+      </c>
+      <c r="H123" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+        </is>
+      </c>
+      <c r="I123" s="0" t="inlineStr">
+        <is>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+        </is>
+      </c>
+      <c r="J123" s="0" t="inlineStr">
+        <is>
+          <t>2022-04-07</t>
+        </is>
+      </c>
+      <c r="K123" s="0" t="inlineStr">
+        <is>
+          <t>2022-12-09</t>
+        </is>
+      </c>
+      <c r="L123" s="0">
+        <v>40</v>
+      </c>
+      <c r="M123" s="0" t="inlineStr">
+        <is>
+          <t>Auditoría normativa y financiera conforme a Norma de Auditoría 11010 "Informe del Contador Público sobre el Resultado de la Aplicación de Procedimientos Convenidos", de las Normas de Auditoría para Atestiguar, Revisión y Otros Servicios Relacionados, a los recursos estatales y/o propios destinados a los rubros de Adquisiciones, Obra Pública, Servicios Personales y Almacén de Servicios de Salud del Edo de Querétaro (SESEQ), conforme a los Términos de Referencia emitidos por la Dir. de Auditoría de la Sec. de la Contraloría por los periodos del 01 de ene al 31 de dic 2021 y 1 ene a 31 mzo 2022.</t>
+        </is>
+      </c>
+      <c r="N123" s="0" t="inlineStr">
+        <is>
+          <t>4621237.00</t>
+        </is>
+      </c>
+      <c r="O123" s="0" t="inlineStr">
+        <is>
+          <t>924247.4</t>
+        </is>
+      </c>
+      <c r="P123" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q123" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R123" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S123" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T123" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U123" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V123" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W123" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X123" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y123" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de la Contraloría</t>
+        </is>
+      </c>
+      <c r="C124" s="0">
+        <v>6101</v>
+      </c>
+      <c r="D124" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E124" s="0" t="inlineStr">
+        <is>
+          <t>Realizar Auditoría a los procedimientos de contratación de adquisiciones y obra pública de las Dependencias y Entidades del Poder Ejecutivo del Estado de Querétaro, con un alcance de revisión de 360 procedimientos.</t>
+        </is>
+      </c>
+      <c r="F124" s="0" t="inlineStr">
+        <is>
+          <t>Realizar Auditoría de cumplimiento de revisiones a los procedimientos de contratación de adquisiciones y obra pública de las Dependencias y Entidades del Poder Ejecutivo del Estado de Querétaro, con un alcance de revisión de 360 procedimientos, en los cuales se debe comprobar que se han llevado a cabo bajo los principios de legalidad, eficiencia, eficacia, economía, transparencia, honradez y equidad, para satisfacer los objetivos a que estén destinados, con apego de la normatividad aplicable en la materia, durante los periodos del 1° de octubre de 2021, al 31 de diciembre de 2021 y del 1° de enero del 2022, al 30 de junio del 2022, con el fin de fomentar las medidas respectivas para motivar y sancionar el cumplimiento de la normatividad del actuar de los servidores públicos del Estado.</t>
+        </is>
+      </c>
+      <c r="G124" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar finanzas públicas sanas</t>
+        </is>
+      </c>
+      <c r="H124" s="0" t="inlineStr">
+        <is>
+          <t>Fomentar la gestión, la eficiencia gubernamental y la mentalidad de servicio.</t>
+        </is>
+      </c>
+      <c r="I124" s="0" t="inlineStr">
+        <is>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+        </is>
+      </c>
+      <c r="J124" s="0" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="K124" s="0" t="inlineStr">
+        <is>
+          <t>2022-12-10</t>
+        </is>
+      </c>
+      <c r="L124" s="0">
+        <v>33</v>
+      </c>
+      <c r="M124" s="0" t="inlineStr">
+        <is>
+          <t>Auditoría administrativa de cumplimiento bajo la metodología de las normas generalmente aceptadas en materia de auditoria y revisiones, para la revisión a los procesos de contratación en materia de adquisiciones y obra pública de las Dependencias y Entidades de la Poder Ejecutivo del Estado de Querétaro, conforme a los Términos de Referencia emitidos por la Dirección de Mejora de la Gestión y Memoria Documental de la Secretaría de la Contraloría, para los periodos del 1 de oct al 31 de dic 2021 y 1 de ene a 30 jun 2022.</t>
+        </is>
+      </c>
+      <c r="N124" s="0" t="inlineStr">
+        <is>
+          <t>16704000.00</t>
+        </is>
+      </c>
+      <c r="O124" s="0" t="inlineStr">
+        <is>
+          <t>3712000</t>
+        </is>
+      </c>
+      <c r="P124" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q124" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R124" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S124" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T124" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U124" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V124" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W124" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X124" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y124" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>Unidad de Comunicación de Social</t>
+        </is>
+      </c>
+      <c r="C125" s="0">
+        <v>4961</v>
+      </c>
+      <c r="D125" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E125" s="0" t="inlineStr">
+        <is>
+          <t>Ejecutar el Programa Anual de Comunicación Social 2022</t>
+        </is>
+      </c>
+      <c r="F125" s="0" t="inlineStr">
+        <is>
+          <t>Ejecutar el Programa Anual de Comunicación Social 2022</t>
+        </is>
+      </c>
+      <c r="G125" s="0" t="inlineStr">
+        <is>
+          <t>Incrementar la percepción positiva del desempeño Gubernamental del Poder Ejecutivo del Estado de Querétaro</t>
+        </is>
+      </c>
+      <c r="H125" s="0" t="inlineStr">
+        <is>
+          <t>Desarrollar y Difundir de manera clara y oportuna contenidos relacionados con la cohesión y bienestar social, eficiencia gubernamental, fortalecimiento a la seguridad, infraestructura en salud, educación, deporte, cultura, responsabilidad social, acceso a bienes y servicios y desarrollo Económico.</t>
+        </is>
+      </c>
+      <c r="I125" s="0" t="inlineStr">
+        <is>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+        </is>
+      </c>
+      <c r="J125" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="K125" s="0" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="L125" s="0">
+        <v>0</v>
+      </c>
+      <c r="N125" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O125" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P125" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q125" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R125" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S125" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T125" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U125" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V125" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W125" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X125" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y125" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>Unidad de Comunicación de Social</t>
+        </is>
+      </c>
+      <c r="C126" s="0">
+        <v>4962</v>
+      </c>
+      <c r="D126" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E126" s="0" t="inlineStr">
+        <is>
+          <t>Adjudicar y formalizar contratos de servicios de Comunicación Social.</t>
+        </is>
+      </c>
+      <c r="F126" s="0" t="inlineStr">
+        <is>
+          <t>Adjudicar y formalizar contratos de servicios de Comunicación Social.</t>
+        </is>
+      </c>
+      <c r="G126" s="0" t="inlineStr">
+        <is>
+          <t>Garantizar el acceso de la información al mayor número de personas que integran el segmento de la población a la que va dirigida.</t>
+        </is>
+      </c>
+      <c r="H126" s="0" t="inlineStr">
+        <is>
+          <t>Realizar selección de proveedores de Servicios de Comunicación Social de radio, televisión, Prensa y medios digitales y complementarios.</t>
+        </is>
+      </c>
+      <c r="I126" s="0" t="inlineStr">
+        <is>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+        </is>
+      </c>
+      <c r="J126" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="K126" s="0" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="L126" s="0">
+        <v>0</v>
+      </c>
+      <c r="N126" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O126" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P126" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q126" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R126" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S126" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T126" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U126" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V126" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W126" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X126" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y126" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>Unidad de Comunicación de Social</t>
+        </is>
+      </c>
+      <c r="C127" s="0">
+        <v>4963</v>
+      </c>
+      <c r="D127" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E127" s="0" t="inlineStr">
+        <is>
+          <t>Dar difusión a las actividades que se realizan en la administración pública estatal y presentar posicionamientos de interés general a través de la publicación de boletines en el portal de Prensa http://www.queretaro.gob.mx/prensa</t>
+        </is>
+      </c>
+      <c r="F127" s="0" t="inlineStr">
+        <is>
+          <t>Dar difusión a las actividades que se realizan en la administración pública estatal y presentar posicionamientos de interés general a través de la publicación de boletines en el portal de Prensa http://www.queretaro.gob.mx/prensa</t>
+        </is>
+      </c>
+      <c r="G127" s="0" t="inlineStr">
+        <is>
+          <t>Aumentar en 5 por ciento la cantidad de Boletines publicados</t>
+        </is>
+      </c>
+      <c r="H127" s="0" t="inlineStr">
+        <is>
+          <t>Procesar y analizar información generando documentos informativos de carácter oficial. </t>
+        </is>
+      </c>
+      <c r="I127" s="0" t="inlineStr">
+        <is>
+          <t>59. Pasar del lugar número 29 a los primeros 15 lugares en el Índice de Gobierno Abierto.</t>
+        </is>
+      </c>
+      <c r="J127" s="0" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="K127" s="0" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="L127" s="0">
+        <v>0</v>
+      </c>
+      <c r="N127" s="0" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O127" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P127" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q127" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R127" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S127" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T127" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U127" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V127" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W127" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X127" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y127" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
